--- a/Src/Utilities/CPTrie/Benchmark.xlsx
+++ b/Src/Utilities/CPTrie/Benchmark.xlsx
@@ -195,110 +195,17 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13291912244987447"/>
-          <c:y val="0.10827259476125306"/>
-          <c:w val="0.84304156388419249"/>
-          <c:h val="0.73078298087671034"/>
+          <c:x val="0.1329191224498745"/>
+          <c:y val="0.10827259476125309"/>
+          <c:w val="0.84304156388419271"/>
+          <c:h val="0.73078298087671023"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dictionary fill time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$28:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$27</c:f>
@@ -408,7 +315,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$27</c:f>
@@ -517,26 +424,19 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$27</c:f>
+              <c:f>Sheet1!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dictionary scan time</c:v>
+                  <c:v>Dictionary fill time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="638FC5"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$28:$B$37</c:f>
@@ -578,39 +478,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$28:$F$37</c:f>
+              <c:f>Sheet1!$C$28:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,7 +518,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$27</c:f>
@@ -727,7 +627,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$27</c:f>
@@ -828,26 +728,126 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dictionary scan time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="638FC5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86499328"/>
-        <c:axId val="86502400"/>
+        <c:axId val="75697536"/>
+        <c:axId val="75719808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86499328"/>
+        <c:axId val="75697536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86502400"/>
+        <c:crossAx val="75719808"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86502400"/>
+        <c:axId val="75719808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86499328"/>
+        <c:crossAx val="75697536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -867,10 +867,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57374534017902523"/>
-          <c:y val="0.13568288382602128"/>
-          <c:w val="0.38904567154635961"/>
-          <c:h val="0.25658500493463321"/>
+          <c:x val="0.57374534017902534"/>
+          <c:y val="0.13568288382602131"/>
+          <c:w val="0.38904567154635966"/>
+          <c:h val="0.25658500493463327"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -888,7 +888,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -905,10 +905,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13291912244987453"/>
-          <c:y val="0.10827259476125312"/>
-          <c:w val="0.84304156388419282"/>
-          <c:h val="0.73078298087671012"/>
+          <c:x val="0.13291912244987455"/>
+          <c:y val="0.10827259476125314"/>
+          <c:w val="0.84304156388419293"/>
+          <c:h val="0.73078298087671001"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1193,25 +1193,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="301744512"/>
-        <c:axId val="301762432"/>
+        <c:axId val="75676288"/>
+        <c:axId val="76124544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301744512"/>
+        <c:axId val="75676288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301762432"/>
+        <c:crossAx val="76124544"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301762432"/>
+        <c:axId val="76124544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1219,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301744512"/>
+        <c:crossAx val="75676288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1232,9 +1232,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.72537929589227612"/>
-          <c:y val="0.64121223550204265"/>
-          <c:w val="0.23218295873954836"/>
-          <c:h val="0.18391516063120514"/>
+          <c:y val="0.64121223550204254"/>
+          <c:w val="0.23218295873954833"/>
+          <c:h val="0.18391516063120519"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1252,7 +1252,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1269,104 +1269,17 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13291912244987453"/>
-          <c:y val="0.10827259476125312"/>
-          <c:w val="0.84304156388419282"/>
-          <c:h val="0.73078298087671012"/>
+          <c:x val="0.13291912244987455"/>
+          <c:y val="0.10827259476125314"/>
+          <c:w val="0.84304156388419293"/>
+          <c:h val="0.73078298087671001"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dictionary fill time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$40:$C$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>937</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>796</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>718</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>921</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>796</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$39</c:f>
@@ -1470,7 +1383,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$39</c:f>
@@ -1573,26 +1486,19 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$39</c:f>
+              <c:f>Sheet1!$C$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dictionary scan time</c:v>
+                  <c:v>Dictionary fill time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="638FC5"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$40:$B$48</c:f>
@@ -1631,36 +1537,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$40:$F$48</c:f>
+              <c:f>Sheet1!$C$40:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>453</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>562</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>593</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>546</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>515</c:v>
+                  <c:v>796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>437</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>328</c:v>
+                  <c:v>609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>296</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>265</c:v>
+                  <c:v>796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,7 +1574,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$39</c:f>
@@ -1771,7 +1677,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$39</c:f>
@@ -1866,26 +1772,120 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dictionary scan time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="638FC5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$40:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="381928192"/>
-        <c:axId val="380596224"/>
+        <c:axId val="76037504"/>
+        <c:axId val="76055680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381928192"/>
+        <c:axId val="76037504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380596224"/>
+        <c:crossAx val="76055680"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380596224"/>
+        <c:axId val="76055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1894,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381928192"/>
+        <c:crossAx val="76037504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -1907,9 +1907,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57374534017902534"/>
+          <c:x val="0.57374534017902545"/>
           <c:y val="0.13312858881145603"/>
-          <c:w val="0.37597377881245869"/>
+          <c:w val="0.37597377881245886"/>
           <c:h val="0.27713277219657889"/>
         </c:manualLayout>
       </c:layout>
@@ -1928,7 +1928,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1945,10 +1945,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13291912244987458"/>
-          <c:y val="0.10827259476125317"/>
-          <c:w val="0.84304156388419305"/>
-          <c:h val="0.7307829808767099"/>
+          <c:x val="0.13291912244987461"/>
+          <c:y val="0.1082725947612532"/>
+          <c:w val="0.84304156388419316"/>
+          <c:h val="0.73078298087670979"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2215,25 +2215,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="379537664"/>
-        <c:axId val="380136448"/>
+        <c:axId val="76269440"/>
+        <c:axId val="76270976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="379537664"/>
+        <c:axId val="76269440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380136448"/>
+        <c:crossAx val="76270976"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380136448"/>
+        <c:axId val="76270976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2242,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379537664"/>
+        <c:crossAx val="76269440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2256,8 +2256,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.72537929589227612"/>
           <c:y val="0.64121223550204254"/>
-          <c:w val="0.23218295873954831"/>
-          <c:h val="0.18391516063120525"/>
+          <c:w val="0.23218295873954828"/>
+          <c:h val="0.1839151606312053"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2275,7 +2275,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4115,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="str">
-        <f>A5</f>
+        <f t="shared" ref="A28:A38" si="1">A5</f>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B28">
@@ -5330,459 +5330,459 @@
         <v>200000</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C38" si="1">G5</f>
+        <f t="shared" ref="C28:C38" si="2">G5</f>
         <v>62</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D38" si="2">J5</f>
+        <f t="shared" ref="D28:D38" si="3">J5</f>
         <v>1538</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E38" si="3">M5</f>
+        <f t="shared" ref="C28:E38" si="4">M5</f>
         <v>695</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F38" si="4">H5</f>
+        <f t="shared" ref="F28:F38" si="5">H5</f>
         <v>85</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G38" si="5">K5</f>
+        <f t="shared" ref="G28:G38" si="6">K5</f>
         <v>827</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H38" si="6">N5</f>
+        <f t="shared" ref="F28:H38" si="7">N5</f>
         <v>390</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:I38" si="7">I5+F5</f>
+        <f t="shared" ref="I28:I38" si="8">I5+F5</f>
         <v>14.799999999999999</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J38" si="8">L5+F5</f>
+        <f t="shared" ref="J28:J38" si="9">L5+F5</f>
         <v>15</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K38" si="9">O5</f>
+        <f t="shared" ref="K28:K38" si="10">O5</f>
         <v>6.4</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="str">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:B37" si="10">D6</f>
+        <f t="shared" ref="B29:B37" si="11">D6</f>
         <v>1000</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>937</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>570</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>554</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>257</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.799999999999999</v>
       </c>
       <c r="J29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.1</v>
       </c>
       <c r="K29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.7</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="str">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B30">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>859</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>531</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>515</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>14.799999999999999</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="9"/>
+        <v>15.1</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="10"/>
-        <v>500</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>859</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="3"/>
-        <v>531</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="4"/>
-        <v>93</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>515</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="6"/>
-        <v>242</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="7"/>
-        <v>14.799999999999999</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="8"/>
-        <v>15.1</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="9"/>
         <v>7.7</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="str">
-        <f>A8</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B31">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>804</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>562</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>234</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>14.799999999999999</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>15.1</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="10"/>
-        <v>250</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>804</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
-        <v>562</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="6"/>
-        <v>234</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="7"/>
-        <v>14.799999999999999</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="8"/>
-        <v>15.1</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="9"/>
         <v>8.1</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="str">
-        <f>A9</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B32">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>648</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>445</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="8"/>
+        <v>14.899999999999999</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="9"/>
+        <v>15.1</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>690</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>648</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="5"/>
-        <v>445</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="6"/>
-        <v>250</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="7"/>
-        <v>14.899999999999999</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="8"/>
-        <v>15.1</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="9"/>
         <v>9.1</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="str">
-        <f>A10</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B33">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>538</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>601</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>367</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>218</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="9"/>
+        <v>15.2</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="10"/>
-        <v>64</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>538</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="3"/>
-        <v>601</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="5"/>
-        <v>367</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="6"/>
-        <v>218</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="8"/>
-        <v>15.2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="9"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="str">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B34">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>437</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>343</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>296</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="8"/>
+        <v>15.2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="9"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>437</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
-        <v>343</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="4"/>
-        <v>93</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="5"/>
-        <v>296</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="6"/>
-        <v>171</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="7"/>
-        <v>15.2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="8"/>
-        <v>15.399999999999999</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="9"/>
         <v>6.7</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="str">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B35">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>234</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>15.7</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>15.799999999999999</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>312</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="5"/>
-        <v>234</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="7"/>
-        <v>15.7</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="8"/>
-        <v>15.799999999999999</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="9"/>
         <v>7.3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="str">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>382</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="I36">
-        <f t="shared" si="7"/>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="J36">
         <f t="shared" si="8"/>
         <v>16.600000000000001</v>
       </c>
+      <c r="J36">
+        <f t="shared" si="9"/>
+        <v>16.600000000000001</v>
+      </c>
       <c r="K36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="str">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">200K pairs         </v>
       </c>
       <c r="B37">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>343</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="8"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="9"/>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>167</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>343</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="5"/>
-        <v>121</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="6"/>
-        <v>117</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="7"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="8"/>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="9"/>
         <v>10.7</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="str">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1M pairs           </v>
       </c>
       <c r="B38">
@@ -5790,39 +5790,39 @@
         <v>1000000</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>476</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10280</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3859</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>460</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5480</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2359</v>
       </c>
       <c r="I38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73.8</v>
       </c>
       <c r="J38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75.099999999999994</v>
       </c>
       <c r="K38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.7</v>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="str">
-        <f>A16</f>
+        <f t="shared" ref="A40:A48" si="12">A16</f>
         <v>1M pairs, 31 prefs.</v>
       </c>
       <c r="B40">
@@ -5868,407 +5868,407 @@
         <v>1000000</v>
       </c>
       <c r="C40">
-        <f>G16</f>
+        <f t="shared" ref="C40:C48" si="13">G16</f>
         <v>460</v>
       </c>
       <c r="D40">
-        <f>J16</f>
+        <f t="shared" ref="D40:D48" si="14">J16</f>
         <v>9929</v>
       </c>
       <c r="E40">
-        <f>M16</f>
+        <f t="shared" ref="C40:E48" si="15">M16</f>
         <v>3843</v>
       </c>
       <c r="F40">
-        <f>H16</f>
+        <f t="shared" ref="F40:F48" si="16">H16</f>
         <v>453</v>
       </c>
       <c r="G40">
-        <f>K16</f>
+        <f t="shared" ref="G40:G48" si="17">K16</f>
         <v>5312</v>
       </c>
       <c r="H40">
-        <f>N16</f>
+        <f t="shared" ref="F40:H48" si="18">N16</f>
         <v>2046</v>
       </c>
       <c r="I40">
-        <f>I16+F16</f>
+        <f t="shared" ref="I40:I48" si="19">I16+F16</f>
         <v>65.3</v>
       </c>
       <c r="J40">
-        <f>L16+F16</f>
+        <f t="shared" ref="J40:J48" si="20">L16+F16</f>
         <v>66.599999999999994</v>
       </c>
       <c r="K40">
-        <f>O16</f>
+        <f t="shared" ref="K40:K48" si="21">O16</f>
         <v>21.3</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="str">
-        <f>A17</f>
+        <f t="shared" si="12"/>
         <v>1M pairs, 31 prefs.</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:B48" si="11">D17</f>
+        <f t="shared" ref="B41:B48" si="22">D17</f>
         <v>500</v>
       </c>
       <c r="C41">
-        <f>G17</f>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="D41">
-        <f>J17</f>
+        <f t="shared" si="14"/>
         <v>5390</v>
       </c>
       <c r="E41">
-        <f>M17</f>
+        <f t="shared" si="15"/>
         <v>2609</v>
       </c>
       <c r="F41">
-        <f>H17</f>
+        <f t="shared" si="16"/>
         <v>562</v>
       </c>
       <c r="G41">
-        <f>K17</f>
+        <f t="shared" si="17"/>
         <v>3078</v>
       </c>
       <c r="H41">
-        <f>N17</f>
+        <f t="shared" si="18"/>
         <v>1390</v>
       </c>
       <c r="I41">
-        <f>I17+F17</f>
+        <f t="shared" si="19"/>
         <v>65.5</v>
       </c>
       <c r="J41">
-        <f>L17+F17</f>
+        <f t="shared" si="20"/>
         <v>66.7</v>
       </c>
       <c r="K41">
-        <f>O17</f>
+        <f t="shared" si="21"/>
         <v>24.9</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="str">
-        <f>A18</f>
+        <f t="shared" si="12"/>
         <v>1M pairs, 31 prefs.</v>
       </c>
       <c r="B42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>250</v>
       </c>
       <c r="C42">
-        <f>G18</f>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="D42">
-        <f>J18</f>
+        <f t="shared" si="14"/>
         <v>4421</v>
       </c>
       <c r="E42">
-        <f>M18</f>
+        <f t="shared" si="15"/>
         <v>3312</v>
       </c>
       <c r="F42">
-        <f>H18</f>
+        <f t="shared" si="16"/>
         <v>593</v>
       </c>
       <c r="G42">
-        <f>K18</f>
+        <f t="shared" si="17"/>
         <v>2656</v>
       </c>
       <c r="H42">
-        <f>N18</f>
+        <f t="shared" si="18"/>
         <v>1296</v>
       </c>
       <c r="I42">
-        <f>I18+F18</f>
+        <f t="shared" si="19"/>
         <v>65.599999999999994</v>
       </c>
       <c r="J42">
-        <f>L18+F18</f>
+        <f t="shared" si="20"/>
         <v>66.8</v>
       </c>
       <c r="K42">
-        <f>O18</f>
+        <f t="shared" si="21"/>
         <v>29.2</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="str">
-        <f>A19</f>
+        <f t="shared" si="12"/>
         <v>1M pairs, 31 prefs.</v>
       </c>
       <c r="B43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="C43">
-        <f>G19</f>
+        <f t="shared" si="13"/>
         <v>937</v>
       </c>
       <c r="D43">
-        <f>J19</f>
+        <f t="shared" si="14"/>
         <v>3671</v>
       </c>
       <c r="E43">
-        <f>M19</f>
+        <f t="shared" si="15"/>
         <v>3546</v>
       </c>
       <c r="F43">
-        <f>H19</f>
+        <f t="shared" si="16"/>
         <v>546</v>
       </c>
       <c r="G43">
-        <f>K19</f>
+        <f t="shared" si="17"/>
         <v>2265</v>
       </c>
       <c r="H43">
-        <f>N19</f>
+        <f t="shared" si="18"/>
         <v>1218</v>
       </c>
       <c r="I43">
-        <f>I19+F19</f>
+        <f t="shared" si="19"/>
         <v>65.900000000000006</v>
       </c>
       <c r="J43">
-        <f>L19+F19</f>
+        <f t="shared" si="20"/>
         <v>67.099999999999994</v>
       </c>
       <c r="K43">
-        <f>O19</f>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="str">
-        <f>A20</f>
+        <f t="shared" si="12"/>
         <v>1M pairs, 31 prefs.</v>
       </c>
       <c r="B44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="C44">
-        <f>G20</f>
+        <f t="shared" si="13"/>
         <v>796</v>
       </c>
       <c r="D44">
-        <f>J20</f>
+        <f t="shared" si="14"/>
         <v>3031</v>
       </c>
       <c r="E44">
-        <f>M20</f>
+        <f t="shared" si="15"/>
         <v>3421</v>
       </c>
       <c r="F44">
-        <f>H20</f>
+        <f t="shared" si="16"/>
         <v>515</v>
       </c>
       <c r="G44">
-        <f>K20</f>
+        <f t="shared" si="17"/>
         <v>1890</v>
       </c>
       <c r="H44">
-        <f>N20</f>
+        <f t="shared" si="18"/>
         <v>1046</v>
       </c>
       <c r="I44">
-        <f>I20+F20</f>
+        <f t="shared" si="19"/>
         <v>66.5</v>
       </c>
       <c r="J44">
-        <f>L20+F20</f>
+        <f t="shared" si="20"/>
         <v>67.599999999999994</v>
       </c>
       <c r="K44">
-        <f>O20</f>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="str">
-        <f>A21</f>
+        <f t="shared" si="12"/>
         <v>1M pairs, 31 prefs.</v>
       </c>
       <c r="B45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="C45">
-        <f>G21</f>
+        <f t="shared" si="13"/>
         <v>718</v>
       </c>
       <c r="D45">
-        <f>J21</f>
+        <f t="shared" si="14"/>
         <v>2531</v>
       </c>
       <c r="E45">
-        <f>M21</f>
+        <f t="shared" si="15"/>
         <v>1984</v>
       </c>
       <c r="F45">
-        <f>H21</f>
+        <f t="shared" si="16"/>
         <v>437</v>
       </c>
       <c r="G45">
-        <f>K21</f>
+        <f t="shared" si="17"/>
         <v>1546</v>
       </c>
       <c r="H45">
-        <f>N21</f>
+        <f t="shared" si="18"/>
         <v>796</v>
       </c>
       <c r="I45">
-        <f>I21+F21</f>
+        <f t="shared" si="19"/>
         <v>67.599999999999994</v>
       </c>
       <c r="J45">
-        <f>L21+F21</f>
+        <f t="shared" si="20"/>
         <v>68.5</v>
       </c>
       <c r="K45">
-        <f>O21</f>
+        <f t="shared" si="21"/>
         <v>31.1</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="str">
-        <f>A22</f>
+        <f t="shared" si="12"/>
         <v>1M pairs, 31 prefs.</v>
       </c>
       <c r="B46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="C46">
-        <f>G22</f>
+        <f t="shared" si="13"/>
         <v>609</v>
       </c>
       <c r="D46">
-        <f>J22</f>
+        <f t="shared" si="14"/>
         <v>1921</v>
       </c>
       <c r="E46">
-        <f>M22</f>
+        <f t="shared" si="15"/>
         <v>1843</v>
       </c>
       <c r="F46">
-        <f>H22</f>
+        <f t="shared" si="16"/>
         <v>328</v>
       </c>
       <c r="G46">
-        <f>K22</f>
+        <f t="shared" si="17"/>
         <v>1171</v>
       </c>
       <c r="H46">
-        <f>N22</f>
+        <f t="shared" si="18"/>
         <v>609</v>
       </c>
       <c r="I46">
-        <f>I22+F22</f>
+        <f t="shared" si="19"/>
         <v>69.8</v>
       </c>
       <c r="J46">
-        <f>L22+F22</f>
+        <f t="shared" si="20"/>
         <v>70.400000000000006</v>
       </c>
       <c r="K46">
-        <f>O22</f>
+        <f t="shared" si="21"/>
         <v>30.3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="str">
-        <f>A23</f>
+        <f t="shared" si="12"/>
         <v>1M pairs, 31 prefs.</v>
       </c>
       <c r="B47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="C47">
-        <f>G23</f>
+        <f t="shared" si="13"/>
         <v>921</v>
       </c>
       <c r="D47">
-        <f>J23</f>
+        <f t="shared" si="14"/>
         <v>1406</v>
       </c>
       <c r="E47">
-        <f>M23</f>
+        <f t="shared" si="15"/>
         <v>1984</v>
       </c>
       <c r="F47">
-        <f>H23</f>
+        <f t="shared" si="16"/>
         <v>296</v>
       </c>
       <c r="G47">
-        <f>K23</f>
+        <f t="shared" si="17"/>
         <v>875</v>
       </c>
       <c r="H47">
-        <f>N23</f>
+        <f t="shared" si="18"/>
         <v>546</v>
       </c>
       <c r="I47">
-        <f>I23+F23</f>
+        <f t="shared" si="19"/>
         <v>74.400000000000006</v>
       </c>
       <c r="J47">
-        <f>L23+F23</f>
+        <f t="shared" si="20"/>
         <v>74.199999999999989</v>
       </c>
       <c r="K47">
-        <f>O23</f>
+        <f t="shared" si="21"/>
         <v>38.6</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="str">
-        <f>A24</f>
+        <f t="shared" si="12"/>
         <v>1M pairs, 31 prefs.</v>
       </c>
       <c r="B48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="C48">
-        <f>G24</f>
+        <f t="shared" si="13"/>
         <v>796</v>
       </c>
       <c r="D48">
-        <f>J24</f>
+        <f t="shared" si="14"/>
         <v>1421</v>
       </c>
       <c r="E48">
-        <f>M24</f>
+        <f t="shared" si="15"/>
         <v>1312</v>
       </c>
       <c r="F48">
-        <f>H24</f>
+        <f t="shared" si="16"/>
         <v>265</v>
       </c>
       <c r="G48">
-        <f>K24</f>
+        <f t="shared" si="17"/>
         <v>625</v>
       </c>
       <c r="H48">
-        <f>N24</f>
+        <f t="shared" si="18"/>
         <v>531</v>
       </c>
       <c r="I48">
-        <f>I24+F24</f>
+        <f t="shared" si="19"/>
         <v>83.3</v>
       </c>
       <c r="J48">
-        <f>L24+F24</f>
+        <f t="shared" si="20"/>
         <v>81.900000000000006</v>
       </c>
       <c r="K48">
-        <f>O24</f>
+        <f t="shared" si="21"/>
         <v>44.3</v>
       </c>
     </row>

--- a/Src/Utilities/CPTrie/Benchmark.xlsx
+++ b/Src/Utilities/CPTrie/Benchmark.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="19035" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Strings" sheetId="1" r:id="rId1"/>
+    <sheet name="Ints" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>Scenario</t>
   </si>
@@ -119,11 +119,185 @@
   <si>
     <t>CPStringTrie scan time</t>
   </si>
+  <si>
+    <t>Dictionary&lt;int,object&gt;</t>
+  </si>
+  <si>
+    <t>SortedDictionary&lt;int,object&gt;</t>
+  </si>
+  <si>
+    <t>CPIntTrie&lt;object&gt;</t>
+  </si>
+  <si>
+    <t>1-100,000, sorted</t>
+  </si>
+  <si>
+    <t>1-100,000, random</t>
+  </si>
+  <si>
+    <t>1-100,000 w/ null vals</t>
+  </si>
+  <si>
+    <t>Random 24-bit ints</t>
+  </si>
+  <si>
+    <t>Random set (null vals.)</t>
+  </si>
+  <si>
+    <t>Clusters(20, 100,2)</t>
+  </si>
+  <si>
+    <t>Clusters(same w/ nulls)</t>
+  </si>
+  <si>
+    <t>Clusters(20, 100,9)</t>
+  </si>
+  <si>
+    <t>Clusters(20,1000,2)</t>
+  </si>
+  <si>
+    <t>Clusters(20,1000,9)</t>
+  </si>
+  <si>
+    <t>Clusters(50, 100,2)</t>
+  </si>
+  <si>
+    <t>Clusters(50, 100,9)</t>
+  </si>
+  <si>
+    <t>Clusters(50,1000,2)</t>
+  </si>
+  <si>
+    <t>Clusters(50,1000,9)</t>
+  </si>
+  <si>
+    <t>Tests with 32-bit keys:</t>
+  </si>
+  <si>
+    <t>Random 32-bit ints</t>
+  </si>
+  <si>
+    <t>Exponential 32-bit</t>
+  </si>
+  <si>
+    <t>Clusters(25,30000,5)</t>
+  </si>
+  <si>
+    <t>Clusters(50,50000,5)</t>
+  </si>
+  <si>
+    <t>Clusters(75,90000,5)</t>
+  </si>
+  <si>
+    <t>Tests with 64-bit keys:</t>
+  </si>
+  <si>
+    <t>Clusters(25,50000,9)</t>
+  </si>
+  <si>
+    <t>Clusters(50,20000,5)</t>
+  </si>
+  <si>
+    <t>Clusters(75,1000,3)</t>
+  </si>
+  <si>
+    <t>Random 32-bit longs</t>
+  </si>
+  <si>
+    <t>Random 40-bit longs</t>
+  </si>
+  <si>
+    <t>Random 64-bit longs</t>
+  </si>
+  <si>
+    <t>Exponential longs</t>
+  </si>
+  <si>
+    <t>24-bit keys with 100K items:</t>
+  </si>
+  <si>
+    <t>Results per 100,000 keys</t>
+  </si>
+  <si>
+    <t>SortedDictionary</t>
+  </si>
+  <si>
+    <t>CPIntTrie</t>
+  </si>
+  <si>
+    <t>Set size</t>
+  </si>
+  <si>
+    <t>CPIntTrie fill time</t>
+  </si>
+  <si>
+    <t>CPIntTrie scan time</t>
+  </si>
+  <si>
+    <t>100K Clusters(25,30000,5)</t>
+  </si>
+  <si>
+    <t>100K Clusters(50,50000,5)</t>
+  </si>
+  <si>
+    <t>100K Clusters(75,90000,5)</t>
+  </si>
+  <si>
+    <t>200K Clusters(75,90000,5)</t>
+  </si>
+  <si>
+    <t>500K Clusters(75,90000,5)</t>
+  </si>
+  <si>
+    <t>2000K Clusters(75,90000,5)</t>
+  </si>
+  <si>
+    <t>1000K Clusters(75,90000,5)</t>
+  </si>
+  <si>
+    <t>100K Exponential</t>
+  </si>
+  <si>
+    <t>200K Exponential</t>
+  </si>
+  <si>
+    <t>500K Exponential</t>
+  </si>
+  <si>
+    <t>1000K Exponential</t>
+  </si>
+  <si>
+    <t>1000K Random</t>
+  </si>
+  <si>
+    <t>500K Random</t>
+  </si>
+  <si>
+    <t>200K Random</t>
+  </si>
+  <si>
+    <t>100K Random</t>
+  </si>
+  <si>
+    <t>Clusters(25,25,1)</t>
+  </si>
+  <si>
+    <t>Clusters(99,90000,2)</t>
+  </si>
+  <si>
+    <t>100K Clusters(25,25,1)</t>
+  </si>
+  <si>
+    <t>2000K Clusters(99,90000,2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -141,9 +315,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -153,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +347,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,8 +363,8 @@
   <colors>
     <mruColors>
       <color rgb="FFF67B00"/>
+      <color rgb="FF638FC5"/>
       <color rgb="FFFF5757"/>
-      <color rgb="FF638FC5"/>
       <color rgb="FF44D055"/>
       <color rgb="FFF60000"/>
       <color rgb="FF34CC46"/>
@@ -195,10 +385,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1329191224498745"/>
-          <c:y val="0.10827259476125309"/>
-          <c:w val="0.84304156388419271"/>
-          <c:h val="0.73078298087671023"/>
+          <c:x val="0.13291912244987458"/>
+          <c:y val="0.11848975774579902"/>
+          <c:w val="0.84304156388419305"/>
+          <c:h val="0.72056596373729143"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -208,7 +398,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$27</c:f>
+              <c:f>Strings!$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -236,7 +426,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Strings!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -275,39 +465,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$28:$D$37</c:f>
+              <c:f>Strings!$D$28:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1538</c:v>
+                  <c:v>773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>937</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>859</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>804</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>690</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>538</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>437</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>312</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>249</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,7 +508,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$27</c:f>
+              <c:f>Strings!$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -346,7 +536,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Strings!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -385,39 +575,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$28:$E$37</c:f>
+              <c:f>Strings!$E$28:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>695</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>570</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>531</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>562</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>648</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>601</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>343</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>382</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>343</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,7 +618,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$27</c:f>
+              <c:f>Strings!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -439,7 +629,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Strings!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -478,7 +668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$37</c:f>
+              <c:f>Strings!$C$28:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -521,7 +711,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$27</c:f>
+              <c:f>Strings!$G$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -548,7 +738,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Strings!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -587,39 +777,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$28:$G$37</c:f>
+              <c:f>Strings!$G$28:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>827</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>554</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>515</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>445</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>367</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>296</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>171</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>121</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,7 +820,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$27</c:f>
+              <c:f>Strings!$H$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -651,7 +841,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Strings!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -690,39 +880,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$28:$H$37</c:f>
+              <c:f>Strings!$H$28:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>390</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>257</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>242</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>218</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>171</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>125</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>117</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,7 +923,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$27</c:f>
+              <c:f>Strings!$F$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -751,7 +941,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Strings!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -790,7 +980,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$28:$F$37</c:f>
+              <c:f>Strings!$F$28:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -829,25 +1019,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75697536"/>
-        <c:axId val="75719808"/>
+        <c:axId val="76041600"/>
+        <c:axId val="76063872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75697536"/>
+        <c:axId val="76041600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75719808"/>
+        <c:crossAx val="76063872"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75719808"/>
+        <c:axId val="76063872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +1045,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75697536"/>
+        <c:crossAx val="76041600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -867,10 +1057,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57374534017902534"/>
-          <c:y val="0.13568288382602131"/>
-          <c:w val="0.38904567154635966"/>
-          <c:h val="0.25658500493463327"/>
+          <c:x val="0.6312616682081893"/>
+          <c:y val="0.11780291831337175"/>
+          <c:w val="0.34198685770431625"/>
+          <c:h val="0.21571645498335695"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -888,7 +1078,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -905,10 +1095,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13291912244987455"/>
-          <c:y val="0.10827259476125314"/>
-          <c:w val="0.84304156388419293"/>
-          <c:h val="0.73078298087671001"/>
+          <c:x val="0.13291912244987464"/>
+          <c:y val="0.10827259476125323"/>
+          <c:w val="0.84304156388419338"/>
+          <c:h val="0.73078298087670968"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -918,7 +1108,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$27</c:f>
+              <c:f>Strings!$I$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -929,7 +1119,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Strings!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -968,7 +1158,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$28:$I$37</c:f>
+              <c:f>Strings!$I$28:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1011,7 +1201,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$27</c:f>
+              <c:f>Strings!$J$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1022,7 +1212,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Strings!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1061,7 +1251,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$28:$J$37</c:f>
+              <c:f>Strings!$J$28:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1104,7 +1294,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$27</c:f>
+              <c:f>Strings!$K$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1115,7 +1305,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Strings!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1154,7 +1344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$28:$K$37</c:f>
+              <c:f>Strings!$K$28:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1193,25 +1383,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75676288"/>
-        <c:axId val="76124544"/>
+        <c:axId val="75610752"/>
+        <c:axId val="76128640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75676288"/>
+        <c:axId val="75610752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76124544"/>
+        <c:crossAx val="76128640"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76124544"/>
+        <c:axId val="76128640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1409,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75676288"/>
+        <c:crossAx val="75610752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1233,8 +1423,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.72537929589227612"/>
           <c:y val="0.64121223550204254"/>
-          <c:w val="0.23218295873954833"/>
-          <c:h val="0.18391516063120519"/>
+          <c:w val="0.23218295873954825"/>
+          <c:h val="0.18391516063120536"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1252,7 +1442,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1269,10 +1459,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13291912244987455"/>
-          <c:y val="0.10827259476125314"/>
-          <c:w val="0.84304156388419293"/>
-          <c:h val="0.73078298087671001"/>
+          <c:x val="0.13291912244987464"/>
+          <c:y val="0.10827259476125323"/>
+          <c:w val="0.84304156388419338"/>
+          <c:h val="0.73078298087670968"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1282,7 +1472,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$39</c:f>
+              <c:f>Strings!$D$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1310,7 +1500,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:f>Strings!$B$40:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1346,36 +1536,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$40:$D$48</c:f>
+              <c:f>Strings!$D$40:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9929</c:v>
+                  <c:v>5140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5390</c:v>
+                  <c:v>3453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4421</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3671</c:v>
+                  <c:v>2453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3031</c:v>
+                  <c:v>2375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2531</c:v>
+                  <c:v>1609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1921</c:v>
+                  <c:v>1343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1406</c:v>
+                  <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1421</c:v>
+                  <c:v>1187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,7 +1576,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$39</c:f>
+              <c:f>Strings!$E$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1414,7 +1604,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:f>Strings!$B$40:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1450,36 +1640,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$40:$E$48</c:f>
+              <c:f>Strings!$E$40:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3843</c:v>
+                  <c:v>4046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2609</c:v>
+                  <c:v>3171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3312</c:v>
+                  <c:v>3578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3546</c:v>
+                  <c:v>4031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3421</c:v>
+                  <c:v>3687</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1984</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1843</c:v>
+                  <c:v>1953</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1984</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1312</c:v>
+                  <c:v>1390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,7 +1680,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$39</c:f>
+              <c:f>Strings!$C$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1501,7 +1691,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:f>Strings!$B$40:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1537,7 +1727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$40:$C$48</c:f>
+              <c:f>Strings!$C$40:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1577,7 +1767,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$39</c:f>
+              <c:f>Strings!$G$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1604,7 +1794,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:f>Strings!$B$40:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1640,36 +1830,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$40:$G$48</c:f>
+              <c:f>Strings!$G$40:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5312</c:v>
+                  <c:v>2968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3078</c:v>
+                  <c:v>1953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2656</c:v>
+                  <c:v>1671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2265</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1890</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1546</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1171</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>875</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>625</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,7 +1870,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$39</c:f>
+              <c:f>Strings!$H$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1701,7 +1891,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:f>Strings!$B$40:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1737,36 +1927,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$40:$H$48</c:f>
+              <c:f>Strings!$H$40:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2046</c:v>
+                  <c:v>2265</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1390</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1296</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1218</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1046</c:v>
+                  <c:v>1093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>796</c:v>
+                  <c:v>906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>609</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>546</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>531</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,7 +1967,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$39</c:f>
+              <c:f>Strings!$F$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1795,7 +1985,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:f>Strings!$B$40:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1831,7 +2021,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$40:$F$48</c:f>
+              <c:f>Strings!$F$40:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1867,25 +2057,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76037504"/>
-        <c:axId val="76055680"/>
+        <c:axId val="75984256"/>
+        <c:axId val="76002432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76037504"/>
+        <c:axId val="75984256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76055680"/>
+        <c:crossAx val="76002432"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76055680"/>
+        <c:axId val="76002432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +2084,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76037504"/>
+        <c:crossAx val="75984256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -1907,10 +2097,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57374534017902545"/>
-          <c:y val="0.13312858881145603"/>
-          <c:w val="0.37597377881245886"/>
-          <c:h val="0.27713277219657889"/>
+          <c:x val="0.63649042530174971"/>
+          <c:y val="0.10758580464798222"/>
+          <c:w val="0.33937247915753604"/>
+          <c:h val="0.24392715278406291"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1928,7 +2118,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1945,10 +2135,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13291912244987461"/>
-          <c:y val="0.1082725947612532"/>
-          <c:w val="0.84304156388419316"/>
-          <c:h val="0.73078298087670979"/>
+          <c:x val="0.13291912244987472"/>
+          <c:y val="0.10827259476125328"/>
+          <c:w val="0.84304156388419371"/>
+          <c:h val="0.73078298087670956"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1958,7 +2148,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$39</c:f>
+              <c:f>Strings!$I$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1969,7 +2159,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:f>Strings!$B$40:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2005,7 +2195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$40:$I$48</c:f>
+              <c:f>Strings!$I$40:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2045,7 +2235,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$39</c:f>
+              <c:f>Strings!$J$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2056,7 +2246,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:f>Strings!$B$40:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2092,7 +2282,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$40:$J$48</c:f>
+              <c:f>Strings!$J$40:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2132,7 +2322,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$39</c:f>
+              <c:f>Strings!$K$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2143,7 +2333,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$48</c:f>
+              <c:f>Strings!$B$40:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2179,7 +2369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$40:$K$48</c:f>
+              <c:f>Strings!$K$40:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2215,25 +2405,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76269440"/>
-        <c:axId val="76270976"/>
+        <c:axId val="76158848"/>
+        <c:axId val="76160384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76269440"/>
+        <c:axId val="76158848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76270976"/>
+        <c:crossAx val="76160384"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76270976"/>
+        <c:axId val="76160384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2432,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76269440"/>
+        <c:crossAx val="76158848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2256,8 +2446,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.72537929589227612"/>
           <c:y val="0.64121223550204254"/>
-          <c:w val="0.23218295873954828"/>
-          <c:h val="0.1839151606312053"/>
+          <c:w val="0.2321829587395482"/>
+          <c:h val="0.18391516063120547"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2275,7 +2465,1504 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9526341815968714E-2"/>
+          <c:y val="0.13385157659541416"/>
+          <c:w val="0.87217680398645825"/>
+          <c:h val="0.65737158424240971"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ints!$M$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPIntTrie fill time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ints!$L$53:$L$69</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>100K Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200K Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K Random</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000K Random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100K Clusters(25,25,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100K Clusters(25,30000,5)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100K Clusters(50,50000,5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000K Clusters(99,90000,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ints!$M$53:$M$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>249.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>239.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>251.54999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>266.40000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ints!$N$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SortedDict. fill time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F67B00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F67B00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="F67B00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ints!$L$53:$L$69</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>100K Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200K Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K Random</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000K Random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100K Clusters(25,25,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100K Clusters(25,30000,5)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100K Clusters(50,50000,5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000K Clusters(99,90000,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ints!$N$53:$N$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>249.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>193.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>253.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>322.65000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ints!$O$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPIntTrie scan time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ints!$L$53:$L$69</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>100K Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200K Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K Random</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000K Random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100K Clusters(25,25,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100K Clusters(25,30000,5)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100K Clusters(50,50000,5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000K Clusters(99,90000,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ints!$O$53:$O$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.50000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.60000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.89999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130.45000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ints!$P$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SortedDict. scan time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F67B00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F67B00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="F67B00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ints!$L$53:$L$69</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>100K Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200K Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K Random</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000K Random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100K Clusters(25,25,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100K Clusters(25,30000,5)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100K Clusters(50,50000,5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000K Clusters(99,90000,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ints!$P$53:$P$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>59.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.50000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>139.79999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ints!$Q$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dictionary fill time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ints!$L$53:$L$69</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>100K Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200K Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K Random</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000K Random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100K Clusters(25,25,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100K Clusters(25,30000,5)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100K Clusters(50,50000,5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000K Clusters(99,90000,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ints!$Q$53:$Q$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ints!$R$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dictionary scan time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="638FC5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ints!$L$53:$L$69</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>100K Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200K Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K Random</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000K Random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100K Clusters(25,25,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100K Clusters(25,30000,5)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100K Clusters(50,50000,5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000K Clusters(99,90000,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ints!$R$53:$R$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="76405760"/>
+        <c:axId val="76411648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="76405760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76411648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76411648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76405760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29197921357202838"/>
+          <c:y val="0.14412146935241343"/>
+          <c:w val="0.4873492335197232"/>
+          <c:h val="0.11125629781861489"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:lumMod val="85000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14931565893712834"/>
+          <c:y val="9.2831001758583026E-2"/>
+          <c:w val="0.77928844903561367"/>
+          <c:h val="0.53544146626111677"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ints!$S$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ints!$L$53:$L$69</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>100K Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200K Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K Random</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000K Random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100K Clusters(25,25,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100K Clusters(25,30000,5)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100K Clusters(50,50000,5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000K Clusters(99,90000,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ints!$S$53:$S$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5449999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ints!$T$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SortedDictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ints!$L$53:$L$69</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>100K Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200K Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K Random</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000K Random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100K Clusters(25,25,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100K Clusters(25,30000,5)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100K Clusters(50,50000,5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000K Clusters(99,90000,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ints!$T$53:$T$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ints!$U$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPIntTrie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ints!$L$53:$L$69</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>100K Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200K Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K Random</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000K Random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000K Exponential</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100K Clusters(25,25,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100K Clusters(25,30000,5)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100K Clusters(50,50000,5)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000K Clusters(75,90000,5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000K Clusters(99,90000,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ints!$U$53:$U$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="76314112"/>
+        <c:axId val="76315648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="76314112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76315648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76315648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76314112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60703580630402876"/>
+          <c:y val="0.46567721288360081"/>
+          <c:w val="0.301483300825929"/>
+          <c:h val="0.14553652624407865"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2731,8 +4418,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="504825"/>
-          <a:ext cx="352426" cy="1028700"/>
+          <a:off x="0" y="915006"/>
+          <a:ext cx="451625" cy="1864519"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2869,8 +4556,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="638176" y="304800"/>
-          <a:ext cx="4067174" cy="219075"/>
+          <a:off x="638163" y="304787"/>
+          <a:ext cx="4067200" cy="219068"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3828,6 +5515,685 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.5087</cdr:x>
+      <cdr:y>0.25479</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5087</cdr:x>
+      <cdr:y>0.79381</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="Straight Connector 12"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipH="1" flipV="1">
+          <a:off x="1600201" y="3390900"/>
+          <a:ext cx="3486151" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.30435</cdr:x>
+      <cdr:y>0.25626</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.30435</cdr:x>
+      <cdr:y>0.79234</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Straight Connector 7"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipH="1" flipV="1">
+          <a:off x="266702" y="3390900"/>
+          <a:ext cx="3467100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00431</cdr:x>
+      <cdr:y>0.3432</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.14224</cdr:x>
+      <cdr:y>0.53254</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="28575" y="1657351"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1051</cdr:x>
+      <cdr:y>0.01926</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97391</cdr:x>
+      <cdr:y>0.11075</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="647700" y="124564"/>
+          <a:ext cx="5354191" cy="591709"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> required to add &amp; scan per 100,000 32-bit integers</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1051</cdr:x>
+      <cdr:y>0.06373</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97246</cdr:x>
+      <cdr:y>0.12898</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="647700" y="412172"/>
+          <a:ext cx="5345255" cy="422003"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>This chart shows several collection sizes (100K, 200K, 500K, 1000K)</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>three key distributions  (random, exponential, clustered).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.38543</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06872</cdr:x>
+      <cdr:y>0.52466</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="2492759"/>
+          <a:ext cx="423499" cy="900466"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="vert270" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Milliseconds</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01376</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96101</cdr:x>
+      <cdr:y>0.14424</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="57151" y="0"/>
+          <a:ext cx="3933824" cy="682838"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Memory</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> required per 100,000 32-bit integers</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.18182</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.087</cdr:x>
+      <cdr:y>0.40132</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="723900"/>
+          <a:ext cx="451625" cy="873919"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="vert270" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Megabytes</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33257</cdr:x>
+      <cdr:y>0.09256</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.33257</cdr:x>
+      <cdr:y>0.62777</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipH="1" flipV="1">
+          <a:off x="114300" y="1704975"/>
+          <a:ext cx="2533650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51376</cdr:x>
+      <cdr:y>0.09256</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51376</cdr:x>
+      <cdr:y>0.62777</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Straight Connector 8"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipH="1" flipV="1">
+          <a:off x="866775" y="1704975"/>
+          <a:ext cx="2533650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4115,8 +6481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4240,19 +6606,19 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="K4">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="L4">
         <v>1.1000000000000001</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O4">
         <v>0.9</v>
@@ -4297,19 +6663,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J5">
-        <v>1538</v>
+        <v>773</v>
       </c>
       <c r="K5">
-        <v>827</v>
+        <v>421</v>
       </c>
       <c r="L5">
         <v>5.3</v>
       </c>
       <c r="M5">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="N5">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="O5">
         <v>6.4</v>
@@ -4354,19 +6720,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J6">
-        <v>937</v>
+        <v>531</v>
       </c>
       <c r="K6">
-        <v>554</v>
+        <v>312</v>
       </c>
       <c r="L6">
         <v>5.4</v>
       </c>
       <c r="M6">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="N6">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="O6">
         <v>7.7</v>
@@ -4402,19 +6768,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J7">
-        <v>859</v>
+        <v>523</v>
       </c>
       <c r="K7">
-        <v>515</v>
+        <v>328</v>
       </c>
       <c r="L7">
         <v>5.4</v>
       </c>
       <c r="M7">
-        <v>531</v>
+        <v>616</v>
       </c>
       <c r="N7">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="O7">
         <v>7.7</v>
@@ -4450,19 +6816,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J8">
-        <v>804</v>
+        <v>484</v>
       </c>
       <c r="K8">
-        <v>500</v>
+        <v>288</v>
       </c>
       <c r="L8">
         <v>5.4</v>
       </c>
       <c r="M8">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="N8">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="O8">
         <v>8.1</v>
@@ -4498,19 +6864,19 @@
         <v>5.2</v>
       </c>
       <c r="J9">
-        <v>690</v>
+        <v>405</v>
       </c>
       <c r="K9">
-        <v>445</v>
+        <v>250</v>
       </c>
       <c r="L9">
         <v>5.4</v>
       </c>
       <c r="M9">
-        <v>648</v>
+        <v>710</v>
       </c>
       <c r="N9">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="O9">
         <v>9.1</v>
@@ -4555,19 +6921,19 @@
         <v>5.3</v>
       </c>
       <c r="J10">
-        <v>538</v>
+        <v>335</v>
       </c>
       <c r="K10">
-        <v>367</v>
+        <v>218</v>
       </c>
       <c r="L10">
         <v>5.5</v>
       </c>
       <c r="M10">
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="N10">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="O10">
         <v>9.1999999999999993</v>
@@ -4603,19 +6969,19 @@
         <v>5.5</v>
       </c>
       <c r="J11">
-        <v>437</v>
+        <v>265</v>
       </c>
       <c r="K11">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="L11">
         <v>5.7</v>
       </c>
       <c r="M11">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="N11">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O11">
         <v>6.7</v>
@@ -4651,19 +7017,19 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="K12">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="L12">
         <v>6.1</v>
       </c>
       <c r="M12">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="N12">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O12">
         <v>7.3</v>
@@ -4699,19 +7065,19 @@
         <v>6.9</v>
       </c>
       <c r="J13">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="K13">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="L13">
         <v>6.9</v>
       </c>
       <c r="M13">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="N13">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O13">
         <v>9.3000000000000007</v>
@@ -4747,19 +7113,19 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="J14">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="K14">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="L14">
         <v>8.4</v>
       </c>
       <c r="M14">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="N14">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O14">
         <v>10.7</v>
@@ -4805,19 +7171,19 @@
         <v>25.4</v>
       </c>
       <c r="J15">
-        <v>10280</v>
+        <v>5593</v>
       </c>
       <c r="K15">
-        <v>5480</v>
+        <v>3031</v>
       </c>
       <c r="L15">
         <v>26.7</v>
       </c>
       <c r="M15">
-        <v>3859</v>
+        <v>4234</v>
       </c>
       <c r="N15">
-        <v>2359</v>
+        <v>2562</v>
       </c>
       <c r="O15">
         <v>25.7</v>
@@ -4862,20 +7228,19 @@
         <v>25.4</v>
       </c>
       <c r="J16">
-        <f>(9593+10265)/2</f>
-        <v>9929</v>
+        <v>5140</v>
       </c>
       <c r="K16">
-        <v>5312</v>
+        <v>2968</v>
       </c>
       <c r="L16">
         <v>26.7</v>
       </c>
       <c r="M16">
-        <v>3843</v>
+        <v>4046</v>
       </c>
       <c r="N16">
-        <v>2046</v>
+        <v>2265</v>
       </c>
       <c r="O16">
         <v>21.3</v>
@@ -4920,19 +7285,19 @@
         <v>25.6</v>
       </c>
       <c r="J17">
-        <v>5390</v>
+        <v>3453</v>
       </c>
       <c r="K17">
-        <v>3078</v>
+        <v>1953</v>
       </c>
       <c r="L17">
         <v>26.8</v>
       </c>
       <c r="M17">
-        <v>2609</v>
+        <v>3171</v>
       </c>
       <c r="N17">
-        <v>1390</v>
+        <v>1453</v>
       </c>
       <c r="O17">
         <v>24.9</v>
@@ -4968,19 +7333,19 @@
         <v>25.7</v>
       </c>
       <c r="J18">
-        <v>4421</v>
+        <v>2765</v>
       </c>
       <c r="K18">
-        <v>2656</v>
+        <v>1671</v>
       </c>
       <c r="L18">
         <v>26.9</v>
       </c>
       <c r="M18">
-        <v>3312</v>
+        <v>3578</v>
       </c>
       <c r="N18">
-        <v>1296</v>
+        <v>1390</v>
       </c>
       <c r="O18">
         <v>29.2</v>
@@ -5016,19 +7381,19 @@
         <v>26</v>
       </c>
       <c r="J19">
-        <v>3671</v>
+        <v>2453</v>
       </c>
       <c r="K19">
-        <v>2265</v>
+        <v>1515</v>
       </c>
       <c r="L19">
         <v>27.2</v>
       </c>
       <c r="M19">
-        <v>3546</v>
+        <v>4031</v>
       </c>
       <c r="N19">
-        <v>1218</v>
+        <v>1296</v>
       </c>
       <c r="O19">
         <v>37</v>
@@ -5064,19 +7429,19 @@
         <v>26.6</v>
       </c>
       <c r="J20">
-        <v>3031</v>
+        <v>2375</v>
       </c>
       <c r="K20">
-        <v>1890</v>
+        <v>1140</v>
       </c>
       <c r="L20">
         <v>27.7</v>
       </c>
       <c r="M20">
-        <v>3421</v>
+        <v>3687</v>
       </c>
       <c r="N20">
-        <v>1046</v>
+        <v>1093</v>
       </c>
       <c r="O20">
         <v>42</v>
@@ -5112,19 +7477,19 @@
         <v>27.7</v>
       </c>
       <c r="J21">
-        <v>2531</v>
+        <v>1609</v>
       </c>
       <c r="K21">
-        <v>1546</v>
+        <v>890</v>
       </c>
       <c r="L21">
         <v>28.6</v>
       </c>
       <c r="M21">
-        <v>1984</v>
+        <v>2015</v>
       </c>
       <c r="N21">
-        <v>796</v>
+        <v>906</v>
       </c>
       <c r="O21">
         <v>31.1</v>
@@ -5160,19 +7525,19 @@
         <v>29.9</v>
       </c>
       <c r="J22">
-        <v>1921</v>
+        <v>1343</v>
       </c>
       <c r="K22">
-        <v>1171</v>
+        <v>656</v>
       </c>
       <c r="L22">
         <v>30.5</v>
       </c>
       <c r="M22">
-        <v>1843</v>
+        <v>1953</v>
       </c>
       <c r="N22">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="O22">
         <v>30.3</v>
@@ -5208,19 +7573,19 @@
         <v>34.5</v>
       </c>
       <c r="J23">
-        <v>1406</v>
+        <v>1015</v>
       </c>
       <c r="K23">
-        <v>875</v>
+        <v>453</v>
       </c>
       <c r="L23">
         <v>34.299999999999997</v>
       </c>
       <c r="M23">
-        <v>1984</v>
+        <v>2140</v>
       </c>
       <c r="N23">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="O23">
         <v>38.6</v>
@@ -5256,19 +7621,19 @@
         <v>43.4</v>
       </c>
       <c r="J24">
-        <v>1421</v>
+        <v>1187</v>
       </c>
       <c r="K24">
-        <v>625</v>
+        <v>312</v>
       </c>
       <c r="L24">
         <v>42</v>
       </c>
       <c r="M24">
-        <v>1312</v>
+        <v>1390</v>
       </c>
       <c r="N24">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="O24">
         <v>44.3</v>
@@ -5335,11 +7700,11 @@
       </c>
       <c r="D28">
         <f t="shared" ref="D28:D38" si="3">J5</f>
-        <v>1538</v>
+        <v>773</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="C28:E38" si="4">M5</f>
-        <v>695</v>
+        <f t="shared" ref="E28:E38" si="4">M5</f>
+        <v>765</v>
       </c>
       <c r="F28">
         <f t="shared" ref="F28:F38" si="5">H5</f>
@@ -5347,11 +7712,11 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G38" si="6">K5</f>
-        <v>827</v>
+        <v>421</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="F28:H38" si="7">N5</f>
-        <v>390</v>
+        <f t="shared" ref="H28:H38" si="7">N5</f>
+        <v>429</v>
       </c>
       <c r="I28">
         <f t="shared" ref="I28:I38" si="8">I5+F5</f>
@@ -5381,11 +7746,11 @@
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>937</v>
+        <v>531</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
@@ -5393,11 +7758,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="6"/>
-        <v>554</v>
+        <v>312</v>
       </c>
       <c r="H29">
         <f t="shared" si="7"/>
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="I29">
         <f t="shared" si="8"/>
@@ -5427,11 +7792,11 @@
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>859</v>
+        <v>523</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>531</v>
+        <v>616</v>
       </c>
       <c r="F30">
         <f t="shared" si="5"/>
@@ -5439,11 +7804,11 @@
       </c>
       <c r="G30">
         <f t="shared" si="6"/>
-        <v>515</v>
+        <v>328</v>
       </c>
       <c r="H30">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
@@ -5473,11 +7838,11 @@
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>804</v>
+        <v>484</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="F31">
         <f t="shared" si="5"/>
@@ -5485,11 +7850,11 @@
       </c>
       <c r="G31">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>288</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="I31">
         <f t="shared" si="8"/>
@@ -5519,11 +7884,11 @@
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>690</v>
+        <v>405</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>648</v>
+        <v>710</v>
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
@@ -5531,11 +7896,11 @@
       </c>
       <c r="G32">
         <f t="shared" si="6"/>
-        <v>445</v>
+        <v>250</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="I32">
         <f t="shared" si="8"/>
@@ -5565,11 +7930,11 @@
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>538</v>
+        <v>335</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
@@ -5577,11 +7942,11 @@
       </c>
       <c r="G33">
         <f t="shared" si="6"/>
-        <v>367</v>
+        <v>218</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="I33">
         <f t="shared" si="8"/>
@@ -5611,11 +7976,11 @@
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>437</v>
+        <v>265</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
@@ -5623,11 +7988,11 @@
       </c>
       <c r="G34">
         <f t="shared" si="6"/>
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="I34">
         <f t="shared" si="8"/>
@@ -5657,11 +8022,11 @@
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
@@ -5669,11 +8034,11 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="H35">
         <f t="shared" si="7"/>
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I35">
         <f t="shared" si="8"/>
@@ -5703,11 +8068,11 @@
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
@@ -5715,11 +8080,11 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="H36">
         <f t="shared" si="7"/>
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="I36">
         <f t="shared" si="8"/>
@@ -5749,11 +8114,11 @@
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
@@ -5761,11 +8126,11 @@
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="H37">
         <f t="shared" si="7"/>
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I37">
         <f t="shared" si="8"/>
@@ -5795,11 +8160,11 @@
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>10280</v>
+        <v>5593</v>
       </c>
       <c r="E38">
         <f t="shared" si="4"/>
-        <v>3859</v>
+        <v>4234</v>
       </c>
       <c r="F38">
         <f t="shared" si="5"/>
@@ -5807,11 +8172,11 @@
       </c>
       <c r="G38">
         <f t="shared" si="6"/>
-        <v>5480</v>
+        <v>3031</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
-        <v>2359</v>
+        <v>2562</v>
       </c>
       <c r="I38">
         <f t="shared" si="8"/>
@@ -5873,11 +8238,11 @@
       </c>
       <c r="D40">
         <f t="shared" ref="D40:D48" si="14">J16</f>
-        <v>9929</v>
+        <v>5140</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="C40:E48" si="15">M16</f>
-        <v>3843</v>
+        <f t="shared" ref="E40:E48" si="15">M16</f>
+        <v>4046</v>
       </c>
       <c r="F40">
         <f t="shared" ref="F40:F48" si="16">H16</f>
@@ -5885,11 +8250,11 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40:G48" si="17">K16</f>
-        <v>5312</v>
+        <v>2968</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="F40:H48" si="18">N16</f>
-        <v>2046</v>
+        <f t="shared" ref="H40:H48" si="18">N16</f>
+        <v>2265</v>
       </c>
       <c r="I40">
         <f t="shared" ref="I40:I48" si="19">I16+F16</f>
@@ -5919,11 +8284,11 @@
       </c>
       <c r="D41">
         <f t="shared" si="14"/>
-        <v>5390</v>
+        <v>3453</v>
       </c>
       <c r="E41">
         <f t="shared" si="15"/>
-        <v>2609</v>
+        <v>3171</v>
       </c>
       <c r="F41">
         <f t="shared" si="16"/>
@@ -5931,11 +8296,11 @@
       </c>
       <c r="G41">
         <f t="shared" si="17"/>
-        <v>3078</v>
+        <v>1953</v>
       </c>
       <c r="H41">
         <f t="shared" si="18"/>
-        <v>1390</v>
+        <v>1453</v>
       </c>
       <c r="I41">
         <f t="shared" si="19"/>
@@ -5965,11 +8330,11 @@
       </c>
       <c r="D42">
         <f t="shared" si="14"/>
-        <v>4421</v>
+        <v>2765</v>
       </c>
       <c r="E42">
         <f t="shared" si="15"/>
-        <v>3312</v>
+        <v>3578</v>
       </c>
       <c r="F42">
         <f t="shared" si="16"/>
@@ -5977,11 +8342,11 @@
       </c>
       <c r="G42">
         <f t="shared" si="17"/>
-        <v>2656</v>
+        <v>1671</v>
       </c>
       <c r="H42">
         <f t="shared" si="18"/>
-        <v>1296</v>
+        <v>1390</v>
       </c>
       <c r="I42">
         <f t="shared" si="19"/>
@@ -6011,11 +8376,11 @@
       </c>
       <c r="D43">
         <f t="shared" si="14"/>
-        <v>3671</v>
+        <v>2453</v>
       </c>
       <c r="E43">
         <f t="shared" si="15"/>
-        <v>3546</v>
+        <v>4031</v>
       </c>
       <c r="F43">
         <f t="shared" si="16"/>
@@ -6023,11 +8388,11 @@
       </c>
       <c r="G43">
         <f t="shared" si="17"/>
-        <v>2265</v>
+        <v>1515</v>
       </c>
       <c r="H43">
         <f t="shared" si="18"/>
-        <v>1218</v>
+        <v>1296</v>
       </c>
       <c r="I43">
         <f t="shared" si="19"/>
@@ -6057,11 +8422,11 @@
       </c>
       <c r="D44">
         <f t="shared" si="14"/>
-        <v>3031</v>
+        <v>2375</v>
       </c>
       <c r="E44">
         <f t="shared" si="15"/>
-        <v>3421</v>
+        <v>3687</v>
       </c>
       <c r="F44">
         <f t="shared" si="16"/>
@@ -6069,11 +8434,11 @@
       </c>
       <c r="G44">
         <f t="shared" si="17"/>
-        <v>1890</v>
+        <v>1140</v>
       </c>
       <c r="H44">
         <f t="shared" si="18"/>
-        <v>1046</v>
+        <v>1093</v>
       </c>
       <c r="I44">
         <f t="shared" si="19"/>
@@ -6103,11 +8468,11 @@
       </c>
       <c r="D45">
         <f t="shared" si="14"/>
-        <v>2531</v>
+        <v>1609</v>
       </c>
       <c r="E45">
         <f t="shared" si="15"/>
-        <v>1984</v>
+        <v>2015</v>
       </c>
       <c r="F45">
         <f t="shared" si="16"/>
@@ -6115,11 +8480,11 @@
       </c>
       <c r="G45">
         <f t="shared" si="17"/>
-        <v>1546</v>
+        <v>890</v>
       </c>
       <c r="H45">
         <f t="shared" si="18"/>
-        <v>796</v>
+        <v>906</v>
       </c>
       <c r="I45">
         <f t="shared" si="19"/>
@@ -6149,11 +8514,11 @@
       </c>
       <c r="D46">
         <f t="shared" si="14"/>
-        <v>1921</v>
+        <v>1343</v>
       </c>
       <c r="E46">
         <f t="shared" si="15"/>
-        <v>1843</v>
+        <v>1953</v>
       </c>
       <c r="F46">
         <f t="shared" si="16"/>
@@ -6161,11 +8526,11 @@
       </c>
       <c r="G46">
         <f t="shared" si="17"/>
-        <v>1171</v>
+        <v>656</v>
       </c>
       <c r="H46">
         <f t="shared" si="18"/>
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="I46">
         <f t="shared" si="19"/>
@@ -6195,11 +8560,11 @@
       </c>
       <c r="D47">
         <f t="shared" si="14"/>
-        <v>1406</v>
+        <v>1015</v>
       </c>
       <c r="E47">
         <f t="shared" si="15"/>
-        <v>1984</v>
+        <v>2140</v>
       </c>
       <c r="F47">
         <f t="shared" si="16"/>
@@ -6207,11 +8572,11 @@
       </c>
       <c r="G47">
         <f t="shared" si="17"/>
-        <v>875</v>
+        <v>453</v>
       </c>
       <c r="H47">
         <f t="shared" si="18"/>
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="I47">
         <f t="shared" si="19"/>
@@ -6241,11 +8606,11 @@
       </c>
       <c r="D48">
         <f t="shared" si="14"/>
-        <v>1421</v>
+        <v>1187</v>
       </c>
       <c r="E48">
         <f t="shared" si="15"/>
-        <v>1312</v>
+        <v>1390</v>
       </c>
       <c r="F48">
         <f t="shared" si="16"/>
@@ -6253,11 +8618,11 @@
       </c>
       <c r="G48">
         <f t="shared" si="17"/>
-        <v>625</v>
+        <v>312</v>
       </c>
       <c r="H48">
         <f t="shared" si="18"/>
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="I48">
         <f t="shared" si="19"/>
@@ -6287,11 +8652,11 @@
       </c>
       <c r="D49">
         <f>J4</f>
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="E49">
         <f>M4</f>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F49">
         <f>H4</f>
@@ -6299,11 +8664,11 @@
       </c>
       <c r="G49">
         <f>K4</f>
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="H49">
         <f>N4</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I49">
         <f>I4+F4</f>
@@ -6327,13 +8692,3950 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1290" topLeftCell="A64" activePane="bottomLeft"/>
+      <selection activeCell="M50" sqref="M50"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4">
+        <v>126</v>
+      </c>
+      <c r="H4">
+        <v>58</v>
+      </c>
+      <c r="I4">
+        <v>2.7</v>
+      </c>
+      <c r="J4">
+        <v>61</v>
+      </c>
+      <c r="K4">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <v>0.9</v>
+      </c>
+      <c r="M4" s="4">
+        <f>D4/$C4*100000</f>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:U4" si="0">E4/$C4*100000</f>
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5">
+        <v>126</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>2.7</v>
+      </c>
+      <c r="J5">
+        <v>52</v>
+      </c>
+      <c r="K5">
+        <v>44</v>
+      </c>
+      <c r="L5">
+        <v>0.9</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5:M48" si="1">D5/$C5*100000</f>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N48" si="2">E5/$C5*100000</f>
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O48" si="3">F5/$C5*100000</f>
+        <v>2.5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P48" si="4">G5/$C5*100000</f>
+        <v>126</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q48" si="5">H5/$C5*100000</f>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R48" si="6">I5/$C5*100000</f>
+        <v>2.7</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S48" si="7">J5/$C5*100000</f>
+        <v>51.999999999999993</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T48" si="8">K5/$C5*100000</f>
+        <v>44</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U48" si="9">L5/$C5*100000</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6">
+        <v>126</v>
+      </c>
+      <c r="H6">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>2.7</v>
+      </c>
+      <c r="J6">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>126</v>
+      </c>
+      <c r="H8">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>2.7</v>
+      </c>
+      <c r="J8">
+        <v>141</v>
+      </c>
+      <c r="K8">
+        <v>63</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9">
+        <v>135</v>
+      </c>
+      <c r="H9">
+        <v>71</v>
+      </c>
+      <c r="I9">
+        <v>2.7</v>
+      </c>
+      <c r="J9">
+        <v>124</v>
+      </c>
+      <c r="K9">
+        <v>63</v>
+      </c>
+      <c r="L9">
+        <v>1.3</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2.5</v>
+      </c>
+      <c r="G10">
+        <v>131</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>2.7</v>
+      </c>
+      <c r="J10">
+        <v>101</v>
+      </c>
+      <c r="K10">
+        <v>47</v>
+      </c>
+      <c r="L10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>100000</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>2.5</v>
+      </c>
+      <c r="G11">
+        <v>132</v>
+      </c>
+      <c r="H11">
+        <v>61</v>
+      </c>
+      <c r="I11">
+        <v>2.7</v>
+      </c>
+      <c r="J11">
+        <v>81</v>
+      </c>
+      <c r="K11">
+        <v>46</v>
+      </c>
+      <c r="L11">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>100000</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>2.5</v>
+      </c>
+      <c r="G12">
+        <v>128</v>
+      </c>
+      <c r="H12">
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>2.7</v>
+      </c>
+      <c r="J12">
+        <v>131</v>
+      </c>
+      <c r="K12">
+        <v>65</v>
+      </c>
+      <c r="L12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>131</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>100000</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <v>131</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>2.7</v>
+      </c>
+      <c r="J13">
+        <v>134</v>
+      </c>
+      <c r="K13">
+        <v>74</v>
+      </c>
+      <c r="L13">
+        <v>1.4</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>100000</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>129</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>2.7</v>
+      </c>
+      <c r="J14">
+        <v>129</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <v>1.4</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>100000</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>129</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15">
+        <v>2.7</v>
+      </c>
+      <c r="J15">
+        <v>79</v>
+      </c>
+      <c r="K15">
+        <v>49</v>
+      </c>
+      <c r="L15">
+        <v>1.6</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="9"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>100000</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>135</v>
+      </c>
+      <c r="H16">
+        <v>62</v>
+      </c>
+      <c r="I16">
+        <v>2.7</v>
+      </c>
+      <c r="J16">
+        <v>128</v>
+      </c>
+      <c r="K16">
+        <v>55</v>
+      </c>
+      <c r="L16">
+        <v>3.1</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="9"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>126</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <v>2.7</v>
+      </c>
+      <c r="J17">
+        <v>132</v>
+      </c>
+      <c r="K17">
+        <v>52</v>
+      </c>
+      <c r="L17">
+        <v>1.7</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="8"/>
+        <v>51.999999999999993</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>100000</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>128</v>
+      </c>
+      <c r="H18">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>2.7</v>
+      </c>
+      <c r="J18">
+        <v>138</v>
+      </c>
+      <c r="K18">
+        <v>68</v>
+      </c>
+      <c r="L18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>100000</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>129</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>2.7</v>
+      </c>
+      <c r="J20">
+        <v>168</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="5"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="U20" s="6">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>200000</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G21">
+        <v>302</v>
+      </c>
+      <c r="H21">
+        <v>149</v>
+      </c>
+      <c r="I21">
+        <v>5.3</v>
+      </c>
+      <c r="J21">
+        <v>436</v>
+      </c>
+      <c r="K21">
+        <v>221</v>
+      </c>
+      <c r="L21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="5"/>
+        <v>74.5</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" si="6"/>
+        <v>2.65</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" si="7"/>
+        <v>218</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="8"/>
+        <v>110.50000000000001</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" si="9"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>500000</v>
+      </c>
+      <c r="D22">
+        <v>130</v>
+      </c>
+      <c r="E22">
+        <v>125</v>
+      </c>
+      <c r="F22">
+        <v>12.7</v>
+      </c>
+      <c r="G22">
+        <v>984</v>
+      </c>
+      <c r="H22">
+        <v>500</v>
+      </c>
+      <c r="I22">
+        <v>13.4</v>
+      </c>
+      <c r="J22">
+        <v>1208</v>
+      </c>
+      <c r="K22">
+        <v>572</v>
+      </c>
+      <c r="L22">
+        <v>8.5</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="1"/>
+        <v>25.999999999999996</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="4"/>
+        <v>196.8</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="6"/>
+        <v>2.68</v>
+      </c>
+      <c r="S22" s="8">
+        <f t="shared" si="7"/>
+        <v>241.60000000000002</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="8"/>
+        <v>114.4</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1000000</v>
+      </c>
+      <c r="D23">
+        <v>320</v>
+      </c>
+      <c r="E23">
+        <v>273</v>
+      </c>
+      <c r="F23">
+        <v>25.4</v>
+      </c>
+      <c r="G23">
+        <v>2484</v>
+      </c>
+      <c r="H23">
+        <v>1195</v>
+      </c>
+      <c r="I23">
+        <v>26.7</v>
+      </c>
+      <c r="J23">
+        <v>2328</v>
+      </c>
+      <c r="K23">
+        <v>1226</v>
+      </c>
+      <c r="L23">
+        <v>13.3</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="2"/>
+        <v>27.3</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="4"/>
+        <v>248.4</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="5"/>
+        <v>119.50000000000001</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" si="6"/>
+        <v>2.67</v>
+      </c>
+      <c r="S23" s="8">
+        <f t="shared" si="7"/>
+        <v>232.8</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" si="8"/>
+        <v>122.60000000000001</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" si="9"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>100000</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>126</v>
+      </c>
+      <c r="H24">
+        <v>58</v>
+      </c>
+      <c r="I24">
+        <v>2.7</v>
+      </c>
+      <c r="J24">
+        <v>177</v>
+      </c>
+      <c r="K24">
+        <v>82</v>
+      </c>
+      <c r="L24">
+        <v>1.9</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S24" s="8">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" si="9"/>
+        <v>1.8999999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>200000</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G25">
+        <v>305</v>
+      </c>
+      <c r="H25">
+        <v>149</v>
+      </c>
+      <c r="I25">
+        <v>5.3</v>
+      </c>
+      <c r="J25">
+        <v>368</v>
+      </c>
+      <c r="K25">
+        <v>209</v>
+      </c>
+      <c r="L25">
+        <v>3.8</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="4"/>
+        <v>152.5</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="5"/>
+        <v>74.5</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="6"/>
+        <v>2.65</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" si="7"/>
+        <v>184</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" si="8"/>
+        <v>104.49999999999999</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" si="9"/>
+        <v>1.8999999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>500000</v>
+      </c>
+      <c r="D26">
+        <v>125</v>
+      </c>
+      <c r="E26">
+        <v>125</v>
+      </c>
+      <c r="F26">
+        <v>12.7</v>
+      </c>
+      <c r="G26">
+        <v>1010</v>
+      </c>
+      <c r="H26">
+        <v>515</v>
+      </c>
+      <c r="I26">
+        <v>13.4</v>
+      </c>
+      <c r="J26">
+        <v>1202</v>
+      </c>
+      <c r="K26">
+        <v>556</v>
+      </c>
+      <c r="L26">
+        <v>9.1</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="5"/>
+        <v>103.00000000000001</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="6"/>
+        <v>2.68</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" si="7"/>
+        <v>240.39999999999998</v>
+      </c>
+      <c r="T26" s="8">
+        <f t="shared" si="8"/>
+        <v>111.19999999999999</v>
+      </c>
+      <c r="U26" s="6">
+        <f t="shared" si="9"/>
+        <v>1.8199999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1000000</v>
+      </c>
+      <c r="D27">
+        <v>312</v>
+      </c>
+      <c r="E27">
+        <v>281</v>
+      </c>
+      <c r="F27">
+        <v>25.4</v>
+      </c>
+      <c r="G27">
+        <v>2499</v>
+      </c>
+      <c r="H27">
+        <v>1187</v>
+      </c>
+      <c r="I27">
+        <v>26.7</v>
+      </c>
+      <c r="J27">
+        <v>2492</v>
+      </c>
+      <c r="K27">
+        <v>1179</v>
+      </c>
+      <c r="L27">
+        <v>17.8</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="1"/>
+        <v>31.2</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="2"/>
+        <v>28.1</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="4"/>
+        <v>249.9</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="5"/>
+        <v>118.69999999999999</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="6"/>
+        <v>2.67</v>
+      </c>
+      <c r="S27" s="8">
+        <f t="shared" si="7"/>
+        <v>249.2</v>
+      </c>
+      <c r="T27" s="8">
+        <f t="shared" si="8"/>
+        <v>117.89999999999999</v>
+      </c>
+      <c r="U27" s="6">
+        <f t="shared" si="9"/>
+        <v>1.7800000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>100000</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+      <c r="G28">
+        <v>129</v>
+      </c>
+      <c r="H28">
+        <v>62</v>
+      </c>
+      <c r="I28">
+        <v>2.7</v>
+      </c>
+      <c r="J28">
+        <v>81</v>
+      </c>
+      <c r="K28">
+        <v>62</v>
+      </c>
+      <c r="L28">
+        <v>1.5</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="1"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S28" s="8">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="T28" s="8">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>100000</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>2.5</v>
+      </c>
+      <c r="G29">
+        <v>128</v>
+      </c>
+      <c r="H29">
+        <v>58</v>
+      </c>
+      <c r="I29">
+        <v>2.7</v>
+      </c>
+      <c r="J29">
+        <v>144</v>
+      </c>
+      <c r="K29">
+        <v>91</v>
+      </c>
+      <c r="L29">
+        <v>1.4</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="1"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P29" s="8">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S29" s="8">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="T29" s="8">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="U29" s="6">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>100000</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>2.5</v>
+      </c>
+      <c r="G30">
+        <v>126</v>
+      </c>
+      <c r="H30">
+        <v>57</v>
+      </c>
+      <c r="I30">
+        <v>2.7</v>
+      </c>
+      <c r="J30">
+        <v>177</v>
+      </c>
+      <c r="K30">
+        <v>87</v>
+      </c>
+      <c r="L30">
+        <v>2.1</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" si="1"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S30" s="8">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+      <c r="T30" s="8">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="U30" s="6">
+        <f t="shared" si="9"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>100000</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>2.5</v>
+      </c>
+      <c r="G31">
+        <v>125</v>
+      </c>
+      <c r="H31">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <v>2.7</v>
+      </c>
+      <c r="J31">
+        <v>169</v>
+      </c>
+      <c r="K31">
+        <v>82</v>
+      </c>
+      <c r="L31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="S31" s="8">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>200000</v>
+      </c>
+      <c r="D32">
+        <v>37</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G32">
+        <v>305</v>
+      </c>
+      <c r="H32">
+        <v>156</v>
+      </c>
+      <c r="I32">
+        <v>5.3</v>
+      </c>
+      <c r="J32">
+        <v>352</v>
+      </c>
+      <c r="K32">
+        <v>190</v>
+      </c>
+      <c r="L32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="4"/>
+        <v>152.5</v>
+      </c>
+      <c r="Q32" s="8">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="6"/>
+        <v>2.65</v>
+      </c>
+      <c r="S32" s="8">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="T32" s="8">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>500000</v>
+      </c>
+      <c r="D33">
+        <v>135</v>
+      </c>
+      <c r="E33">
+        <v>119</v>
+      </c>
+      <c r="F33">
+        <v>12.7</v>
+      </c>
+      <c r="G33">
+        <v>968</v>
+      </c>
+      <c r="H33">
+        <v>500</v>
+      </c>
+      <c r="I33">
+        <v>13.4</v>
+      </c>
+      <c r="J33">
+        <v>1140</v>
+      </c>
+      <c r="K33">
+        <v>546</v>
+      </c>
+      <c r="L33">
+        <v>10.9</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="2"/>
+        <v>23.8</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="P33" s="8">
+        <f t="shared" si="4"/>
+        <v>193.6</v>
+      </c>
+      <c r="Q33" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="R33" s="6">
+        <f t="shared" si="6"/>
+        <v>2.68</v>
+      </c>
+      <c r="S33" s="8">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="T33" s="8">
+        <f t="shared" si="8"/>
+        <v>109.2</v>
+      </c>
+      <c r="U33" s="6">
+        <f t="shared" si="9"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1000000</v>
+      </c>
+      <c r="D34">
+        <v>304</v>
+      </c>
+      <c r="E34">
+        <v>280</v>
+      </c>
+      <c r="F34">
+        <v>25.4</v>
+      </c>
+      <c r="G34">
+        <v>2538</v>
+      </c>
+      <c r="H34">
+        <v>1202</v>
+      </c>
+      <c r="I34">
+        <v>26.7</v>
+      </c>
+      <c r="J34">
+        <v>2390</v>
+      </c>
+      <c r="K34">
+        <v>1163</v>
+      </c>
+      <c r="L34">
+        <v>21.8</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="1"/>
+        <v>30.400000000000002</v>
+      </c>
+      <c r="N34" s="8">
+        <f t="shared" si="2"/>
+        <v>27.999999999999996</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="P34" s="8">
+        <f t="shared" si="4"/>
+        <v>253.79999999999998</v>
+      </c>
+      <c r="Q34" s="8">
+        <f t="shared" si="5"/>
+        <v>120.19999999999999</v>
+      </c>
+      <c r="R34" s="6">
+        <f t="shared" si="6"/>
+        <v>2.67</v>
+      </c>
+      <c r="S34" s="8">
+        <f t="shared" si="7"/>
+        <v>239.00000000000003</v>
+      </c>
+      <c r="T34" s="8">
+        <f t="shared" si="8"/>
+        <v>116.3</v>
+      </c>
+      <c r="U34" s="6">
+        <f t="shared" si="9"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2000000</v>
+      </c>
+      <c r="D35">
+        <v>687</v>
+      </c>
+      <c r="E35">
+        <v>578</v>
+      </c>
+      <c r="F35">
+        <v>50.9</v>
+      </c>
+      <c r="G35">
+        <v>6453</v>
+      </c>
+      <c r="H35">
+        <v>2734</v>
+      </c>
+      <c r="I35">
+        <v>53.4</v>
+      </c>
+      <c r="J35">
+        <v>5031</v>
+      </c>
+      <c r="K35">
+        <v>2609</v>
+      </c>
+      <c r="L35">
+        <v>43.6</v>
+      </c>
+      <c r="M35" s="7">
+        <f t="shared" si="1"/>
+        <v>34.35</v>
+      </c>
+      <c r="N35" s="8">
+        <f t="shared" si="2"/>
+        <v>28.9</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="P35" s="8">
+        <f t="shared" si="4"/>
+        <v>322.65000000000003</v>
+      </c>
+      <c r="Q35" s="8">
+        <f t="shared" si="5"/>
+        <v>136.69999999999999</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" si="6"/>
+        <v>2.67</v>
+      </c>
+      <c r="S35" s="8">
+        <f t="shared" si="7"/>
+        <v>251.54999999999998</v>
+      </c>
+      <c r="T35" s="8">
+        <f t="shared" si="8"/>
+        <v>130.45000000000002</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" si="9"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2000000</v>
+      </c>
+      <c r="D36">
+        <v>703</v>
+      </c>
+      <c r="E36">
+        <v>578</v>
+      </c>
+      <c r="F36">
+        <v>50.9</v>
+      </c>
+      <c r="G36">
+        <v>6640</v>
+      </c>
+      <c r="H36">
+        <v>2796</v>
+      </c>
+      <c r="I36">
+        <v>53.4</v>
+      </c>
+      <c r="J36">
+        <v>5328</v>
+      </c>
+      <c r="K36">
+        <v>3062</v>
+      </c>
+      <c r="L36">
+        <v>28.1</v>
+      </c>
+      <c r="M36" s="7">
+        <f t="shared" si="1"/>
+        <v>35.15</v>
+      </c>
+      <c r="N36" s="8">
+        <f t="shared" si="2"/>
+        <v>28.9</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" si="4"/>
+        <v>332</v>
+      </c>
+      <c r="Q36" s="8">
+        <f t="shared" si="5"/>
+        <v>139.79999999999998</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="6"/>
+        <v>2.67</v>
+      </c>
+      <c r="S36" s="8">
+        <f t="shared" si="7"/>
+        <v>266.40000000000003</v>
+      </c>
+      <c r="T36" s="8">
+        <f t="shared" si="8"/>
+        <v>153.1</v>
+      </c>
+      <c r="U36" s="6">
+        <f t="shared" si="9"/>
+        <v>1.405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>100000</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>3.1</v>
+      </c>
+      <c r="G38">
+        <v>158</v>
+      </c>
+      <c r="I38">
+        <v>3.1</v>
+      </c>
+      <c r="J38">
+        <v>177</v>
+      </c>
+      <c r="K38">
+        <v>94</v>
+      </c>
+      <c r="L38">
+        <v>1.4</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>100000</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>3.1</v>
+      </c>
+      <c r="G39">
+        <v>141</v>
+      </c>
+      <c r="I39">
+        <v>3.1</v>
+      </c>
+      <c r="J39">
+        <v>175</v>
+      </c>
+      <c r="K39">
+        <v>85</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="7"/>
+        <v>175</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>100000</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>3.1</v>
+      </c>
+      <c r="G40">
+        <v>140</v>
+      </c>
+      <c r="I40">
+        <v>3.1</v>
+      </c>
+      <c r="J40">
+        <v>148</v>
+      </c>
+      <c r="K40">
+        <v>68</v>
+      </c>
+      <c r="L40">
+        <v>1.8</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="1"/>
+        <v>25.999999999999996</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>100000</v>
+      </c>
+      <c r="D41">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>3.1</v>
+      </c>
+      <c r="G41">
+        <v>149</v>
+      </c>
+      <c r="I41">
+        <v>3.1</v>
+      </c>
+      <c r="J41">
+        <v>166</v>
+      </c>
+      <c r="K41">
+        <v>91</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="1"/>
+        <v>25.999999999999996</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>100000</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>3.1</v>
+      </c>
+      <c r="G42">
+        <v>168</v>
+      </c>
+      <c r="I42">
+        <v>3.1</v>
+      </c>
+      <c r="J42">
+        <v>180</v>
+      </c>
+      <c r="K42">
+        <v>88</v>
+      </c>
+      <c r="L42">
+        <v>2.5</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>100000</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>3.1</v>
+      </c>
+      <c r="G43">
+        <v>144</v>
+      </c>
+      <c r="I43">
+        <v>3.1</v>
+      </c>
+      <c r="J43">
+        <v>193</v>
+      </c>
+      <c r="K43">
+        <v>90</v>
+      </c>
+      <c r="L43">
+        <v>3.1</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>193</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="9"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>100000</v>
+      </c>
+      <c r="D44">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>3.1</v>
+      </c>
+      <c r="G44">
+        <v>151</v>
+      </c>
+      <c r="I44">
+        <v>3.1</v>
+      </c>
+      <c r="J44">
+        <v>177</v>
+      </c>
+      <c r="K44">
+        <v>88</v>
+      </c>
+      <c r="L44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="1"/>
+        <v>25.999999999999996</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="9"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>100000</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>3.1</v>
+      </c>
+      <c r="G45">
+        <v>151</v>
+      </c>
+      <c r="I45">
+        <v>3.1</v>
+      </c>
+      <c r="J45">
+        <v>201</v>
+      </c>
+      <c r="K45">
+        <v>109</v>
+      </c>
+      <c r="L45">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="9"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>200000</v>
+      </c>
+      <c r="D46">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <v>6.1</v>
+      </c>
+      <c r="G46">
+        <v>359</v>
+      </c>
+      <c r="I46">
+        <v>6.1</v>
+      </c>
+      <c r="J46">
+        <v>521</v>
+      </c>
+      <c r="K46">
+        <v>237</v>
+      </c>
+      <c r="L46">
+        <v>4.7</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>21.5</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>3.05</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>179.5</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>3.05</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="7"/>
+        <v>260.5</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="8"/>
+        <v>118.50000000000001</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="9"/>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>500000</v>
+      </c>
+      <c r="D47">
+        <v>140</v>
+      </c>
+      <c r="E47">
+        <v>130</v>
+      </c>
+      <c r="F47">
+        <v>15.3</v>
+      </c>
+      <c r="G47">
+        <v>1265</v>
+      </c>
+      <c r="I47">
+        <v>15.3</v>
+      </c>
+      <c r="J47">
+        <v>1353</v>
+      </c>
+      <c r="K47">
+        <v>676</v>
+      </c>
+      <c r="L47">
+        <v>11.4</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="1"/>
+        <v>27.999999999999996</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>25.999999999999996</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>3.06</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>3.06</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="7"/>
+        <v>270.60000000000002</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>135.19999999999999</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="9"/>
+        <v>2.2800000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>1000000</v>
+      </c>
+      <c r="D48">
+        <v>335</v>
+      </c>
+      <c r="E48">
+        <v>281</v>
+      </c>
+      <c r="F48">
+        <v>30.5</v>
+      </c>
+      <c r="G48">
+        <v>3179</v>
+      </c>
+      <c r="I48">
+        <v>30.5</v>
+      </c>
+      <c r="J48">
+        <v>3148</v>
+      </c>
+      <c r="K48">
+        <v>1460</v>
+      </c>
+      <c r="L48">
+        <v>22.3</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>28.1</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>3.05</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>317.89999999999998</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>3.05</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="7"/>
+        <v>314.8</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="9"/>
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="51" spans="12:21">
+      <c r="M51" s="4"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="3"/>
+      <c r="Q51" s="1"/>
+      <c r="T51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="12:21">
+      <c r="L52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="12:21">
+      <c r="L53" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" s="8">
+        <f t="shared" ref="M53:M60" si="10">S20</f>
+        <v>168</v>
+      </c>
+      <c r="N53" s="8">
+        <f t="shared" ref="N53:N60" si="11">P20</f>
+        <v>129</v>
+      </c>
+      <c r="O53" s="8">
+        <f t="shared" ref="O53:O60" si="12">T20</f>
+        <v>90</v>
+      </c>
+      <c r="P53" s="8">
+        <f t="shared" ref="P53:P60" si="13">Q20</f>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="Q53" s="8">
+        <f>M20</f>
+        <v>18</v>
+      </c>
+      <c r="R53" s="8">
+        <f>N20</f>
+        <v>10</v>
+      </c>
+      <c r="S53" s="6">
+        <f>O20</f>
+        <v>2.5</v>
+      </c>
+      <c r="T53" s="6">
+        <f t="shared" ref="T53:T60" si="14">R20</f>
+        <v>2.7</v>
+      </c>
+      <c r="U53" s="6">
+        <f t="shared" ref="U53:U60" si="15">U20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="12:21">
+      <c r="L54" t="s">
+        <v>85</v>
+      </c>
+      <c r="M54" s="8">
+        <f t="shared" si="10"/>
+        <v>218</v>
+      </c>
+      <c r="N54" s="8">
+        <f t="shared" si="11"/>
+        <v>151</v>
+      </c>
+      <c r="O54" s="8">
+        <f t="shared" si="12"/>
+        <v>110.50000000000001</v>
+      </c>
+      <c r="P54" s="8">
+        <f t="shared" si="13"/>
+        <v>74.5</v>
+      </c>
+      <c r="Q54" s="8">
+        <f t="shared" ref="Q54:R54" si="16">M21</f>
+        <v>21.5</v>
+      </c>
+      <c r="R54" s="8">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="S54" s="6">
+        <f t="shared" ref="S54:S60" si="17">O21</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T54" s="6">
+        <f t="shared" si="14"/>
+        <v>2.65</v>
+      </c>
+      <c r="U54" s="6">
+        <f t="shared" si="15"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="12:21">
+      <c r="L55" t="s">
+        <v>84</v>
+      </c>
+      <c r="M55" s="8">
+        <f t="shared" si="10"/>
+        <v>241.60000000000002</v>
+      </c>
+      <c r="N55" s="8">
+        <f t="shared" si="11"/>
+        <v>196.8</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="12"/>
+        <v>114.4</v>
+      </c>
+      <c r="P55" s="8">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="Q55" s="8">
+        <f t="shared" ref="Q55:R55" si="18">M22</f>
+        <v>25.999999999999996</v>
+      </c>
+      <c r="R55" s="8">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="S55" s="6">
+        <f t="shared" si="17"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="T55" s="6">
+        <f t="shared" si="14"/>
+        <v>2.68</v>
+      </c>
+      <c r="U55" s="6">
+        <f t="shared" si="15"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="56" spans="12:21">
+      <c r="L56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M56" s="8">
+        <f t="shared" si="10"/>
+        <v>232.8</v>
+      </c>
+      <c r="N56" s="8">
+        <f t="shared" si="11"/>
+        <v>248.4</v>
+      </c>
+      <c r="O56" s="8">
+        <f t="shared" si="12"/>
+        <v>122.60000000000001</v>
+      </c>
+      <c r="P56" s="8">
+        <f t="shared" si="13"/>
+        <v>119.50000000000001</v>
+      </c>
+      <c r="Q56" s="8">
+        <f t="shared" ref="Q56:R56" si="19">M23</f>
+        <v>32</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" si="19"/>
+        <v>27.3</v>
+      </c>
+      <c r="S56" s="6">
+        <f t="shared" si="17"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="T56" s="6">
+        <f t="shared" si="14"/>
+        <v>2.67</v>
+      </c>
+      <c r="U56" s="6">
+        <f t="shared" si="15"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="57" spans="12:21">
+      <c r="L57" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="8">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+      <c r="N57" s="8">
+        <f t="shared" si="11"/>
+        <v>126</v>
+      </c>
+      <c r="O57" s="8">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="P57" s="8">
+        <f t="shared" si="13"/>
+        <v>58</v>
+      </c>
+      <c r="Q57" s="8">
+        <f t="shared" ref="Q57:R57" si="20">M24</f>
+        <v>21</v>
+      </c>
+      <c r="R57" s="8">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="S57" s="6">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="T57" s="6">
+        <f t="shared" si="14"/>
+        <v>2.7</v>
+      </c>
+      <c r="U57" s="6">
+        <f t="shared" si="15"/>
+        <v>1.8999999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="12:21">
+      <c r="L58" t="s">
+        <v>80</v>
+      </c>
+      <c r="M58" s="8">
+        <f t="shared" si="10"/>
+        <v>184</v>
+      </c>
+      <c r="N58" s="8">
+        <f t="shared" si="11"/>
+        <v>152.5</v>
+      </c>
+      <c r="O58" s="8">
+        <f t="shared" si="12"/>
+        <v>104.49999999999999</v>
+      </c>
+      <c r="P58" s="8">
+        <f t="shared" si="13"/>
+        <v>74.5</v>
+      </c>
+      <c r="Q58" s="8">
+        <f t="shared" ref="Q58:R58" si="21">M25</f>
+        <v>20</v>
+      </c>
+      <c r="R58" s="8">
+        <f t="shared" si="21"/>
+        <v>18.5</v>
+      </c>
+      <c r="S58" s="6">
+        <f t="shared" si="17"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T58" s="6">
+        <f t="shared" si="14"/>
+        <v>2.65</v>
+      </c>
+      <c r="U58" s="6">
+        <f t="shared" si="15"/>
+        <v>1.8999999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="12:21">
+      <c r="L59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M59" s="8">
+        <f t="shared" si="10"/>
+        <v>240.39999999999998</v>
+      </c>
+      <c r="N59" s="8">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="O59" s="8">
+        <f t="shared" si="12"/>
+        <v>111.19999999999999</v>
+      </c>
+      <c r="P59" s="8">
+        <f t="shared" si="13"/>
+        <v>103.00000000000001</v>
+      </c>
+      <c r="Q59" s="8">
+        <f t="shared" ref="Q59:R59" si="22">M26</f>
+        <v>25</v>
+      </c>
+      <c r="R59" s="8">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="S59" s="6">
+        <f t="shared" si="17"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="T59" s="6">
+        <f t="shared" si="14"/>
+        <v>2.68</v>
+      </c>
+      <c r="U59" s="6">
+        <f t="shared" si="15"/>
+        <v>1.8199999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="12:21">
+      <c r="L60" t="s">
+        <v>82</v>
+      </c>
+      <c r="M60" s="8">
+        <f t="shared" si="10"/>
+        <v>249.2</v>
+      </c>
+      <c r="N60" s="8">
+        <f t="shared" si="11"/>
+        <v>249.9</v>
+      </c>
+      <c r="O60" s="8">
+        <f t="shared" si="12"/>
+        <v>117.89999999999999</v>
+      </c>
+      <c r="P60" s="8">
+        <f t="shared" si="13"/>
+        <v>118.69999999999999</v>
+      </c>
+      <c r="Q60" s="8">
+        <f t="shared" ref="Q60:R61" si="23">M27</f>
+        <v>31.2</v>
+      </c>
+      <c r="R60" s="8">
+        <f t="shared" si="23"/>
+        <v>28.1</v>
+      </c>
+      <c r="S60" s="6">
+        <f t="shared" si="17"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="T60" s="6">
+        <f t="shared" si="14"/>
+        <v>2.67</v>
+      </c>
+      <c r="U60" s="6">
+        <f t="shared" si="15"/>
+        <v>1.7800000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="12:21">
+      <c r="L61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M61" s="8">
+        <f t="shared" ref="M61" si="24">S28</f>
+        <v>81</v>
+      </c>
+      <c r="N61" s="8">
+        <f t="shared" ref="N61" si="25">P28</f>
+        <v>129</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" ref="O61" si="26">T28</f>
+        <v>62</v>
+      </c>
+      <c r="P61" s="8">
+        <f t="shared" ref="P61" si="27">Q28</f>
+        <v>62</v>
+      </c>
+      <c r="Q61" s="8">
+        <f t="shared" si="23"/>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="R61" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="6">
+        <f t="shared" ref="S61" si="28">O28</f>
+        <v>2.5</v>
+      </c>
+      <c r="T61" s="6">
+        <f t="shared" ref="T61" si="29">R28</f>
+        <v>2.7</v>
+      </c>
+      <c r="U61" s="6">
+        <f t="shared" ref="U61:U69" si="30">U28</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="12:21">
+      <c r="L62" t="s">
+        <v>72</v>
+      </c>
+      <c r="M62" s="8">
+        <f t="shared" ref="M62:M68" si="31">S29</f>
+        <v>144</v>
+      </c>
+      <c r="N62" s="8">
+        <f t="shared" ref="N62:N68" si="32">P29</f>
+        <v>128</v>
+      </c>
+      <c r="O62" s="8">
+        <f t="shared" ref="O62:O68" si="33">T29</f>
+        <v>91</v>
+      </c>
+      <c r="P62" s="8">
+        <f t="shared" ref="P62:P68" si="34">Q29</f>
+        <v>58</v>
+      </c>
+      <c r="Q62" s="8">
+        <f t="shared" ref="Q62:R62" si="35">M29</f>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="R62" s="8">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="S62" s="6">
+        <f t="shared" ref="S62:S68" si="36">O29</f>
+        <v>2.5</v>
+      </c>
+      <c r="T62" s="6">
+        <f t="shared" ref="T62:T68" si="37">R29</f>
+        <v>2.7</v>
+      </c>
+      <c r="U62" s="6">
+        <f t="shared" ref="U62:U68" si="38">U29</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="63" spans="12:21">
+      <c r="L63" t="s">
+        <v>73</v>
+      </c>
+      <c r="M63" s="8">
+        <f t="shared" si="31"/>
+        <v>177</v>
+      </c>
+      <c r="N63" s="8">
+        <f t="shared" si="32"/>
+        <v>126</v>
+      </c>
+      <c r="O63" s="8">
+        <f t="shared" si="33"/>
+        <v>87</v>
+      </c>
+      <c r="P63" s="8">
+        <f t="shared" si="34"/>
+        <v>57</v>
+      </c>
+      <c r="Q63" s="8">
+        <f t="shared" ref="Q63:R63" si="39">M30</f>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="R63" s="8">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="S63" s="6">
+        <f t="shared" si="36"/>
+        <v>2.5</v>
+      </c>
+      <c r="T63" s="6">
+        <f t="shared" si="37"/>
+        <v>2.7</v>
+      </c>
+      <c r="U63" s="6">
+        <f t="shared" si="38"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="64" spans="12:21">
+      <c r="L64" t="s">
+        <v>74</v>
+      </c>
+      <c r="M64" s="8">
+        <f t="shared" si="31"/>
+        <v>169</v>
+      </c>
+      <c r="N64" s="8">
+        <f t="shared" si="32"/>
+        <v>125</v>
+      </c>
+      <c r="O64" s="8">
+        <f t="shared" si="33"/>
+        <v>82</v>
+      </c>
+      <c r="P64" s="8">
+        <f t="shared" si="34"/>
+        <v>55</v>
+      </c>
+      <c r="Q64" s="8">
+        <f t="shared" ref="Q64:R64" si="40">M31</f>
+        <v>18</v>
+      </c>
+      <c r="R64" s="8">
+        <f t="shared" si="40"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="S64" s="6">
+        <f t="shared" si="36"/>
+        <v>2.5</v>
+      </c>
+      <c r="T64" s="6">
+        <f t="shared" si="37"/>
+        <v>2.7</v>
+      </c>
+      <c r="U64" s="6">
+        <f t="shared" si="38"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="12:21">
+      <c r="L65" t="s">
+        <v>75</v>
+      </c>
+      <c r="M65" s="8">
+        <f t="shared" si="31"/>
+        <v>176</v>
+      </c>
+      <c r="N65" s="8">
+        <f t="shared" si="32"/>
+        <v>152.5</v>
+      </c>
+      <c r="O65" s="8">
+        <f t="shared" si="33"/>
+        <v>95</v>
+      </c>
+      <c r="P65" s="8">
+        <f t="shared" si="34"/>
+        <v>78</v>
+      </c>
+      <c r="Q65" s="8">
+        <f t="shared" ref="Q65:R65" si="41">M32</f>
+        <v>18.5</v>
+      </c>
+      <c r="R65" s="8">
+        <f t="shared" si="41"/>
+        <v>15.5</v>
+      </c>
+      <c r="S65" s="6">
+        <f t="shared" si="36"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T65" s="6">
+        <f t="shared" si="37"/>
+        <v>2.65</v>
+      </c>
+      <c r="U65" s="6">
+        <f t="shared" si="38"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="12:21">
+      <c r="L66" t="s">
+        <v>76</v>
+      </c>
+      <c r="M66" s="8">
+        <f t="shared" si="31"/>
+        <v>228</v>
+      </c>
+      <c r="N66" s="8">
+        <f t="shared" si="32"/>
+        <v>193.6</v>
+      </c>
+      <c r="O66" s="8">
+        <f t="shared" si="33"/>
+        <v>109.2</v>
+      </c>
+      <c r="P66" s="8">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="Q66" s="8">
+        <f t="shared" ref="Q66:R66" si="42">M33</f>
+        <v>27</v>
+      </c>
+      <c r="R66" s="8">
+        <f t="shared" si="42"/>
+        <v>23.8</v>
+      </c>
+      <c r="S66" s="6">
+        <f t="shared" si="36"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="T66" s="6">
+        <f t="shared" si="37"/>
+        <v>2.68</v>
+      </c>
+      <c r="U66" s="6">
+        <f t="shared" si="38"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="12:21">
+      <c r="L67" t="s">
+        <v>78</v>
+      </c>
+      <c r="M67" s="8">
+        <f t="shared" si="31"/>
+        <v>239.00000000000003</v>
+      </c>
+      <c r="N67" s="8">
+        <f t="shared" si="32"/>
+        <v>253.79999999999998</v>
+      </c>
+      <c r="O67" s="8">
+        <f t="shared" si="33"/>
+        <v>116.3</v>
+      </c>
+      <c r="P67" s="8">
+        <f t="shared" si="34"/>
+        <v>120.19999999999999</v>
+      </c>
+      <c r="Q67" s="8">
+        <f t="shared" ref="Q67:R67" si="43">M34</f>
+        <v>30.400000000000002</v>
+      </c>
+      <c r="R67" s="8">
+        <f t="shared" si="43"/>
+        <v>27.999999999999996</v>
+      </c>
+      <c r="S67" s="6">
+        <f t="shared" si="36"/>
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="T67" s="6">
+        <f t="shared" si="37"/>
+        <v>2.67</v>
+      </c>
+      <c r="U67" s="6">
+        <f t="shared" si="38"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="12:21">
+      <c r="L68" t="s">
+        <v>77</v>
+      </c>
+      <c r="M68" s="8">
+        <f t="shared" si="31"/>
+        <v>251.54999999999998</v>
+      </c>
+      <c r="N68" s="8">
+        <f t="shared" si="32"/>
+        <v>322.65000000000003</v>
+      </c>
+      <c r="O68" s="8">
+        <f t="shared" si="33"/>
+        <v>130.45000000000002</v>
+      </c>
+      <c r="P68" s="8">
+        <f t="shared" si="34"/>
+        <v>136.69999999999999</v>
+      </c>
+      <c r="Q68" s="8">
+        <f t="shared" ref="Q68:R68" si="44">M35</f>
+        <v>34.35</v>
+      </c>
+      <c r="R68" s="8">
+        <f t="shared" si="44"/>
+        <v>28.9</v>
+      </c>
+      <c r="S68" s="6">
+        <f t="shared" si="36"/>
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="T68" s="6">
+        <f t="shared" si="37"/>
+        <v>2.67</v>
+      </c>
+      <c r="U68" s="6">
+        <f t="shared" si="38"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="12:21">
+      <c r="L69" t="s">
+        <v>90</v>
+      </c>
+      <c r="M69" s="8">
+        <f t="shared" ref="M69" si="45">S36</f>
+        <v>266.40000000000003</v>
+      </c>
+      <c r="N69" s="8">
+        <f t="shared" ref="N69" si="46">P36</f>
+        <v>332</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" ref="O69" si="47">T36</f>
+        <v>153.1</v>
+      </c>
+      <c r="P69" s="8">
+        <f t="shared" ref="P69" si="48">Q36</f>
+        <v>139.79999999999998</v>
+      </c>
+      <c r="Q69" s="8">
+        <f t="shared" ref="Q69" si="49">M36</f>
+        <v>35.15</v>
+      </c>
+      <c r="R69" s="8">
+        <f t="shared" ref="R69" si="50">N36</f>
+        <v>28.9</v>
+      </c>
+      <c r="S69" s="6">
+        <f t="shared" ref="S69" si="51">O36</f>
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="T69" s="6">
+        <f t="shared" ref="T69" si="52">R36</f>
+        <v>2.67</v>
+      </c>
+      <c r="U69" s="6">
+        <f t="shared" si="30"/>
+        <v>1.405</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
